--- a/runningfile.xlsx
+++ b/runningfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhe\Desktop\textmask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandonJ\Desktop\filtertext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D25546-4137-41B4-A01A-EFBDE83CB7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4601DB-A3D9-4C6B-B6F1-3AAA8D39F37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C91FCE9-0359-459C-A316-4C12974A0EFB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="950">
   <si>
     <t>Clean</t>
   </si>
@@ -52832,13 +52832,1354 @@
       </rPr>
       <t>마라</t>
     </r>
+  </si>
+  <si>
+    <t>10새</t>
+  </si>
+  <si>
+    <t>10새기</t>
+  </si>
+  <si>
+    <t>10새리</t>
+  </si>
+  <si>
+    <t>10세리</t>
+  </si>
+  <si>
+    <t>10쉐이</t>
+  </si>
+  <si>
+    <t>10쉑</t>
+  </si>
+  <si>
+    <t>10스</t>
+  </si>
+  <si>
+    <t>10쌔</t>
+  </si>
+  <si>
+    <t>10쌔기</t>
+  </si>
+  <si>
+    <t>10쎄</t>
+  </si>
+  <si>
+    <t>10알</t>
+  </si>
+  <si>
+    <t>10창</t>
+  </si>
+  <si>
+    <t>10탱</t>
+  </si>
+  <si>
+    <t>18것</t>
+  </si>
+  <si>
+    <t>18넘</t>
+  </si>
+  <si>
+    <t>18년</t>
+  </si>
+  <si>
+    <t>18노</t>
+  </si>
+  <si>
+    <t>18놈</t>
+  </si>
+  <si>
+    <t>18뇬</t>
+  </si>
+  <si>
+    <t>18럼</t>
+  </si>
+  <si>
+    <t>18롬</t>
+  </si>
+  <si>
+    <t>18새끼</t>
+  </si>
+  <si>
+    <t>18색</t>
+  </si>
+  <si>
+    <t>18세끼</t>
+  </si>
+  <si>
+    <t>18세리</t>
+  </si>
+  <si>
+    <t>18섹</t>
+  </si>
+  <si>
+    <t>18쉑</t>
+  </si>
+  <si>
+    <t>18스</t>
+  </si>
+  <si>
+    <t>18아</t>
+  </si>
+  <si>
+    <t>ㄱㅐ</t>
+  </si>
+  <si>
+    <t>ㄲㅏ</t>
+  </si>
+  <si>
+    <t>ㄲㅑ</t>
+  </si>
+  <si>
+    <t>ㄲㅣ</t>
+  </si>
+  <si>
+    <t>ㅅㅂㄹㅁ</t>
+  </si>
+  <si>
+    <t>ㅅㅐ</t>
+  </si>
+  <si>
+    <t>ㅆㅂㄹㅁ</t>
+  </si>
+  <si>
+    <t>ㅆㅍㅆㅣ</t>
+  </si>
+  <si>
+    <t>ㅆ앙ㅍㅏ</t>
+  </si>
+  <si>
+    <t>凸</t>
+  </si>
+  <si>
+    <t>갈보</t>
+  </si>
+  <si>
+    <t>갈보년</t>
+  </si>
+  <si>
+    <t>강아지</t>
+  </si>
+  <si>
+    <t>같은년</t>
+  </si>
+  <si>
+    <t>같은뇬</t>
+  </si>
+  <si>
+    <t>개같은</t>
+  </si>
+  <si>
+    <t>개구라</t>
+  </si>
+  <si>
+    <t>개년</t>
+  </si>
+  <si>
+    <t>개놈</t>
+  </si>
+  <si>
+    <t>개뇬</t>
+  </si>
+  <si>
+    <t>개대중</t>
+  </si>
+  <si>
+    <t>개독</t>
+  </si>
+  <si>
+    <t>개돼중</t>
+  </si>
+  <si>
+    <t>개랄</t>
+  </si>
+  <si>
+    <t>개보지</t>
+  </si>
+  <si>
+    <t>개뻥</t>
+  </si>
+  <si>
+    <t>개뿔</t>
+  </si>
+  <si>
+    <t>개새</t>
+  </si>
+  <si>
+    <t>개새기</t>
+  </si>
+  <si>
+    <t>개새끼</t>
+  </si>
+  <si>
+    <t>개새키</t>
+  </si>
+  <si>
+    <t>개색기</t>
+  </si>
+  <si>
+    <t>개색끼</t>
+  </si>
+  <si>
+    <t>개색키</t>
+  </si>
+  <si>
+    <t>개색히</t>
+  </si>
+  <si>
+    <t>개섀끼</t>
+  </si>
+  <si>
+    <t>개세</t>
+  </si>
+  <si>
+    <t>개세끼</t>
+  </si>
+  <si>
+    <t>개세이</t>
+  </si>
+  <si>
+    <t>개소리</t>
+  </si>
+  <si>
+    <t>개쑈</t>
+  </si>
+  <si>
+    <t>개쇳기</t>
+  </si>
+  <si>
+    <t>개수작</t>
+  </si>
+  <si>
+    <t>개쉐</t>
+  </si>
+  <si>
+    <t>개쉐리</t>
+  </si>
+  <si>
+    <t>개쉐이</t>
+  </si>
+  <si>
+    <t>개쉑</t>
+  </si>
+  <si>
+    <t>개쉽</t>
+  </si>
+  <si>
+    <t>개스끼</t>
+  </si>
+  <si>
+    <t>개시키</t>
+  </si>
+  <si>
+    <t>개십새기</t>
+  </si>
+  <si>
+    <t>개십새끼</t>
+  </si>
+  <si>
+    <t>개쐑</t>
+  </si>
+  <si>
+    <t>개씹</t>
+  </si>
+  <si>
+    <t>개아들</t>
+  </si>
+  <si>
+    <t>개자슥</t>
+  </si>
+  <si>
+    <t>개자지</t>
+  </si>
+  <si>
+    <t>개접</t>
+  </si>
+  <si>
+    <t>개좆</t>
+  </si>
+  <si>
+    <t>개좌식</t>
+  </si>
+  <si>
+    <t>개허접</t>
+  </si>
+  <si>
+    <t>걔새</t>
+  </si>
+  <si>
+    <t>걔수작</t>
+  </si>
+  <si>
+    <t>걔시끼</t>
+  </si>
+  <si>
+    <t>걔시키</t>
+  </si>
+  <si>
+    <t>걔썌</t>
+  </si>
+  <si>
+    <t>게색기</t>
+  </si>
+  <si>
+    <t>게색끼</t>
+  </si>
+  <si>
+    <t>광뇬</t>
+  </si>
+  <si>
+    <t>구녕</t>
+  </si>
+  <si>
+    <t>구라</t>
+  </si>
+  <si>
+    <t>그년</t>
+  </si>
+  <si>
+    <t>그새끼</t>
+  </si>
+  <si>
+    <t>놈현</t>
+  </si>
+  <si>
+    <t>뇬뉘미럴</t>
+  </si>
+  <si>
+    <t>니귀미</t>
+  </si>
+  <si>
+    <t>니기미</t>
+  </si>
+  <si>
+    <t>니미</t>
+  </si>
+  <si>
+    <t>니미랄</t>
+  </si>
+  <si>
+    <t>니미럴</t>
+  </si>
+  <si>
+    <t>니미씹</t>
+  </si>
+  <si>
+    <t>니아배</t>
+  </si>
+  <si>
+    <t>니아베</t>
+  </si>
+  <si>
+    <t>니아비</t>
+  </si>
+  <si>
+    <t>니어매</t>
+  </si>
+  <si>
+    <t>니어메</t>
+  </si>
+  <si>
+    <t>니어미</t>
+  </si>
+  <si>
+    <t>닝기리</t>
+  </si>
+  <si>
+    <t>닝기미</t>
+  </si>
+  <si>
+    <t>대가리</t>
+  </si>
+  <si>
+    <t>뎡신</t>
+  </si>
+  <si>
+    <t>도라이</t>
+  </si>
+  <si>
+    <t>돈놈</t>
+  </si>
+  <si>
+    <t>돌아이</t>
+  </si>
+  <si>
+    <t>돌은놈</t>
+  </si>
+  <si>
+    <t>되질래</t>
+  </si>
+  <si>
+    <t>뒈져</t>
+  </si>
+  <si>
+    <t>뒈져라</t>
+  </si>
+  <si>
+    <t>뒈진</t>
+  </si>
+  <si>
+    <t>뒈진다</t>
+  </si>
+  <si>
+    <t>뒈질</t>
+  </si>
+  <si>
+    <t>뒤질래</t>
+  </si>
+  <si>
+    <t>디져라</t>
+  </si>
+  <si>
+    <t>디진다</t>
+  </si>
+  <si>
+    <t>디질래</t>
+  </si>
+  <si>
+    <t>딩시</t>
+  </si>
+  <si>
+    <t>따식</t>
+  </si>
+  <si>
+    <t>때놈</t>
+  </si>
+  <si>
+    <t>또라이</t>
+  </si>
+  <si>
+    <t>똘아이</t>
+  </si>
+  <si>
+    <t>뙈놈</t>
+  </si>
+  <si>
+    <t>뙤놈</t>
+  </si>
+  <si>
+    <t>뙨넘</t>
+  </si>
+  <si>
+    <t>뙨놈</t>
+  </si>
+  <si>
+    <t>뚜쟁</t>
+  </si>
+  <si>
+    <t>띠바</t>
+  </si>
+  <si>
+    <t>띠발</t>
+  </si>
+  <si>
+    <t>띠불</t>
+  </si>
+  <si>
+    <t>띠팔</t>
+  </si>
+  <si>
+    <t>메친넘</t>
+  </si>
+  <si>
+    <t>메친놈</t>
+  </si>
+  <si>
+    <t>미췬</t>
+  </si>
+  <si>
+    <t>미친넘</t>
+  </si>
+  <si>
+    <t>미친년</t>
+  </si>
+  <si>
+    <t>미친놈</t>
+  </si>
+  <si>
+    <t>미친새끼</t>
+  </si>
+  <si>
+    <t>미친스까이</t>
+  </si>
+  <si>
+    <t>미틴</t>
+  </si>
+  <si>
+    <t>미틴넘</t>
+  </si>
+  <si>
+    <t>미틴년</t>
+  </si>
+  <si>
+    <t>미틴놈</t>
+  </si>
+  <si>
+    <t>바랄년</t>
+  </si>
+  <si>
+    <t>뱅마</t>
+  </si>
+  <si>
+    <t>뱅신</t>
+  </si>
+  <si>
+    <t>벼엉신</t>
+  </si>
+  <si>
+    <t>병쉰</t>
+  </si>
+  <si>
+    <t>병신</t>
+  </si>
+  <si>
+    <t>부랄</t>
+  </si>
+  <si>
+    <t>부럴</t>
+  </si>
+  <si>
+    <t>불알</t>
+  </si>
+  <si>
+    <t>불할</t>
+  </si>
+  <si>
+    <t>붕가</t>
+  </si>
+  <si>
+    <t>붙어먹</t>
+  </si>
+  <si>
+    <t>뷰웅</t>
+  </si>
+  <si>
+    <t>븅</t>
+  </si>
+  <si>
+    <t>븅신</t>
+  </si>
+  <si>
+    <t>빌어먹</t>
+  </si>
+  <si>
+    <t>빙시</t>
+  </si>
+  <si>
+    <t>빙신</t>
+  </si>
+  <si>
+    <t>빠가</t>
+  </si>
+  <si>
+    <t>빠구리</t>
+  </si>
+  <si>
+    <t>빠굴</t>
+  </si>
+  <si>
+    <t>빠큐</t>
+  </si>
+  <si>
+    <t>뻐큐</t>
+  </si>
+  <si>
+    <t>뻑큐</t>
+  </si>
+  <si>
+    <t>뽁큐</t>
+  </si>
+  <si>
+    <t>상넘이</t>
+  </si>
+  <si>
+    <t>상놈을</t>
+  </si>
+  <si>
+    <t>상놈의</t>
+  </si>
+  <si>
+    <t>상놈이</t>
+  </si>
+  <si>
+    <t>새갸</t>
+  </si>
+  <si>
+    <t>새꺄</t>
+  </si>
+  <si>
+    <t>새새끼</t>
+  </si>
+  <si>
+    <t>새키</t>
+  </si>
+  <si>
+    <t>색끼</t>
+  </si>
+  <si>
+    <t>세갸</t>
+  </si>
+  <si>
+    <t>세꺄</t>
+  </si>
+  <si>
+    <t>섹스</t>
+  </si>
+  <si>
+    <t>쇼하네</t>
+  </si>
+  <si>
+    <t>쉐기</t>
+  </si>
+  <si>
+    <t>쉐끼</t>
+  </si>
+  <si>
+    <t>쉐리</t>
+  </si>
+  <si>
+    <t>쉐에기</t>
+  </si>
+  <si>
+    <t>쉐키</t>
+  </si>
+  <si>
+    <t>쉑</t>
+  </si>
+  <si>
+    <t>쉣</t>
+  </si>
+  <si>
+    <t>쉨</t>
+  </si>
+  <si>
+    <t>쉬발</t>
+  </si>
+  <si>
+    <t>쉬밸</t>
+  </si>
+  <si>
+    <t>쉬벌</t>
+  </si>
+  <si>
+    <t>쉬뻘</t>
+  </si>
+  <si>
+    <t>쉬펄</t>
+  </si>
+  <si>
+    <t>쉽알</t>
+  </si>
+  <si>
+    <t>스패킹</t>
+  </si>
+  <si>
+    <t>스팽</t>
+  </si>
+  <si>
+    <t>시댕</t>
+  </si>
+  <si>
+    <t>시뎅</t>
+  </si>
+  <si>
+    <t>시랄</t>
+  </si>
+  <si>
+    <t>시발시벌</t>
+  </si>
+  <si>
+    <t>시부랄</t>
+  </si>
+  <si>
+    <t>시부럴</t>
+  </si>
+  <si>
+    <t>시부리</t>
+  </si>
+  <si>
+    <t>시불</t>
+  </si>
+  <si>
+    <t>시브랄</t>
+  </si>
+  <si>
+    <t>시팍</t>
+  </si>
+  <si>
+    <t>시팔</t>
+  </si>
+  <si>
+    <t>시펄</t>
+  </si>
+  <si>
+    <t>심발끈</t>
+  </si>
+  <si>
+    <t>심탱</t>
+  </si>
+  <si>
+    <t>십8</t>
+  </si>
+  <si>
+    <t>십라</t>
+  </si>
+  <si>
+    <t>십새</t>
+  </si>
+  <si>
+    <t>십새끼</t>
+  </si>
+  <si>
+    <t>십세</t>
+  </si>
+  <si>
+    <t>십쉐</t>
+  </si>
+  <si>
+    <t>십쉐이</t>
+  </si>
+  <si>
+    <t>십스키</t>
+  </si>
+  <si>
+    <t>십쌔</t>
+  </si>
+  <si>
+    <t>십창</t>
+  </si>
+  <si>
+    <t>십탱</t>
+  </si>
+  <si>
+    <t>싶알</t>
+  </si>
+  <si>
+    <t>싸가지</t>
+  </si>
+  <si>
+    <t>싹아지</t>
+  </si>
+  <si>
+    <t>쌉년</t>
+  </si>
+  <si>
+    <t>쌍넘</t>
+  </si>
+  <si>
+    <t>쌍년</t>
+  </si>
+  <si>
+    <t>쌍놈</t>
+  </si>
+  <si>
+    <t>쌍뇬</t>
+  </si>
+  <si>
+    <t>쌔끼</t>
+  </si>
+  <si>
+    <t>쌕</t>
+  </si>
+  <si>
+    <t>쌩쑈</t>
+  </si>
+  <si>
+    <t>쌴년</t>
+  </si>
+  <si>
+    <t>썅</t>
+  </si>
+  <si>
+    <t>썅년</t>
+  </si>
+  <si>
+    <t>썅놈</t>
+  </si>
+  <si>
+    <t>썡쇼</t>
+  </si>
+  <si>
+    <t>써벌</t>
+  </si>
+  <si>
+    <t>썩을년</t>
+  </si>
+  <si>
+    <t>썩을놈</t>
+  </si>
+  <si>
+    <t>쎄꺄</t>
+  </si>
+  <si>
+    <t>쎄엑</t>
+  </si>
+  <si>
+    <t>쒸벌</t>
+  </si>
+  <si>
+    <t>쒸뻘</t>
+  </si>
+  <si>
+    <t>쒸팔</t>
+  </si>
+  <si>
+    <t>쒸펄</t>
+  </si>
+  <si>
+    <t>쓰바</t>
+  </si>
+  <si>
+    <t>쓰박</t>
+  </si>
+  <si>
+    <t>쓰발</t>
+  </si>
+  <si>
+    <t>쓰벌</t>
+  </si>
+  <si>
+    <t>쓰팔</t>
+  </si>
+  <si>
+    <t>씁새</t>
+  </si>
+  <si>
+    <t>씁얼</t>
+  </si>
+  <si>
+    <t>씌파</t>
+  </si>
+  <si>
+    <t>씨8</t>
+  </si>
+  <si>
+    <t>씨끼</t>
+  </si>
+  <si>
+    <t>씨댕</t>
+  </si>
+  <si>
+    <t>씨뎅</t>
+  </si>
+  <si>
+    <t>씨바</t>
+  </si>
+  <si>
+    <t>씨바랄</t>
+  </si>
+  <si>
+    <t>씨박</t>
+  </si>
+  <si>
+    <t>씨발</t>
+  </si>
+  <si>
+    <t>씨방</t>
+  </si>
+  <si>
+    <t>씨방새</t>
+  </si>
+  <si>
+    <t>씨방세</t>
+  </si>
+  <si>
+    <t>씨밸</t>
+  </si>
+  <si>
+    <t>씨뱅</t>
+  </si>
+  <si>
+    <t>씨벌</t>
+  </si>
+  <si>
+    <t>씨벨</t>
+  </si>
+  <si>
+    <t>씨봉</t>
+  </si>
+  <si>
+    <t>씨봉알</t>
+  </si>
+  <si>
+    <t>씨부랄</t>
+  </si>
+  <si>
+    <t>씨부럴</t>
+  </si>
+  <si>
+    <t>씨부렁</t>
+  </si>
+  <si>
+    <t>씨부리</t>
+  </si>
+  <si>
+    <t>씨불</t>
+  </si>
+  <si>
+    <t>씨붕</t>
+  </si>
+  <si>
+    <t>씨브랄</t>
+  </si>
+  <si>
+    <t>씨빠</t>
+  </si>
+  <si>
+    <t>씨빨</t>
+  </si>
+  <si>
+    <t>씨뽀랄</t>
+  </si>
+  <si>
+    <t>씨앙</t>
+  </si>
+  <si>
+    <t>씨파</t>
+  </si>
+  <si>
+    <t>씨팍</t>
+  </si>
+  <si>
+    <t>씨팔</t>
+  </si>
+  <si>
+    <t>씨펄</t>
+  </si>
+  <si>
+    <t>씸년</t>
+  </si>
+  <si>
+    <t>씸뇬</t>
+  </si>
+  <si>
+    <t>씸새끼</t>
+  </si>
+  <si>
+    <t>씹같</t>
+  </si>
+  <si>
+    <t>씹년</t>
+  </si>
+  <si>
+    <t>씹뇬</t>
+  </si>
+  <si>
+    <t>씹보지</t>
+  </si>
+  <si>
+    <t>씹새</t>
+  </si>
+  <si>
+    <t>씹새기</t>
+  </si>
+  <si>
+    <t>씹새끼</t>
+  </si>
+  <si>
+    <t>씹새리</t>
+  </si>
+  <si>
+    <t>씹세</t>
+  </si>
+  <si>
+    <t>씹쉐</t>
+  </si>
+  <si>
+    <t>씹스키</t>
+  </si>
+  <si>
+    <t>씹쌔</t>
+  </si>
+  <si>
+    <t>씹이</t>
+  </si>
+  <si>
+    <t>씹자지</t>
+  </si>
+  <si>
+    <t>씹질</t>
+  </si>
+  <si>
+    <t>씹창</t>
+  </si>
+  <si>
+    <t>씹탱</t>
+  </si>
+  <si>
+    <t>씹퇭</t>
+  </si>
+  <si>
+    <t>씹팔</t>
+  </si>
+  <si>
+    <t>씹할</t>
+  </si>
+  <si>
+    <t>씹헐</t>
+  </si>
+  <si>
+    <t>아가리</t>
+  </si>
+  <si>
+    <t>아갈</t>
+  </si>
+  <si>
+    <t>아갈이</t>
+  </si>
+  <si>
+    <t>아갈통</t>
+  </si>
+  <si>
+    <t>아구창</t>
+  </si>
+  <si>
+    <t>아구통</t>
+  </si>
+  <si>
+    <t>아굴</t>
+  </si>
+  <si>
+    <t>얌마</t>
+  </si>
+  <si>
+    <t>양넘</t>
+  </si>
+  <si>
+    <t>양년</t>
+  </si>
+  <si>
+    <t>양놈</t>
+  </si>
+  <si>
+    <t>엄창</t>
+  </si>
+  <si>
+    <t>엠병</t>
+  </si>
+  <si>
+    <t>여물통</t>
+  </si>
+  <si>
+    <t>염병</t>
+  </si>
+  <si>
+    <t>엿같</t>
+  </si>
+  <si>
+    <t>옘병</t>
+  </si>
+  <si>
+    <t>옘빙</t>
+  </si>
+  <si>
+    <t>왜년</t>
+  </si>
+  <si>
+    <t>왜놈</t>
+  </si>
+  <si>
+    <t>욤병</t>
+  </si>
+  <si>
+    <t>육갑</t>
+  </si>
+  <si>
+    <t>은년</t>
+  </si>
+  <si>
+    <t>을년</t>
+  </si>
+  <si>
+    <t>이년</t>
+  </si>
+  <si>
+    <t>이새끼</t>
+  </si>
+  <si>
+    <t>이새키</t>
+  </si>
+  <si>
+    <t>이스끼</t>
+  </si>
+  <si>
+    <t>이스키</t>
+  </si>
+  <si>
+    <t>임마</t>
+  </si>
+  <si>
+    <t>자슥</t>
+  </si>
+  <si>
+    <t>잡것</t>
+  </si>
+  <si>
+    <t>잡넘</t>
+  </si>
+  <si>
+    <t>잡년</t>
+  </si>
+  <si>
+    <t>잡놈</t>
+  </si>
+  <si>
+    <t>저년</t>
+  </si>
+  <si>
+    <t>저새끼</t>
+  </si>
+  <si>
+    <t>접년</t>
+  </si>
+  <si>
+    <t>젖밥</t>
+  </si>
+  <si>
+    <t>조까</t>
+  </si>
+  <si>
+    <t>조까치</t>
+  </si>
+  <si>
+    <t>조낸</t>
+  </si>
+  <si>
+    <t>조또</t>
+  </si>
+  <si>
+    <t>조랭</t>
+  </si>
+  <si>
+    <t>조빠</t>
+  </si>
+  <si>
+    <t>조쟁이</t>
+  </si>
+  <si>
+    <t>조지냐</t>
+  </si>
+  <si>
+    <t>조진다</t>
+  </si>
+  <si>
+    <t>조찐</t>
+  </si>
+  <si>
+    <t>조질래</t>
+  </si>
+  <si>
+    <t>존나</t>
+  </si>
+  <si>
+    <t>존나게</t>
+  </si>
+  <si>
+    <t>존니</t>
+  </si>
+  <si>
+    <t>존만</t>
+  </si>
+  <si>
+    <t>존만한</t>
+  </si>
+  <si>
+    <t>좀물</t>
+  </si>
+  <si>
+    <t>좁년</t>
+  </si>
+  <si>
+    <t>좆</t>
+  </si>
+  <si>
+    <t>좁밥</t>
+  </si>
+  <si>
+    <t>좃까</t>
+  </si>
+  <si>
+    <t>좃또</t>
+  </si>
+  <si>
+    <t>좃만</t>
+  </si>
+  <si>
+    <t>좃밥</t>
+  </si>
+  <si>
+    <t>좃이</t>
+  </si>
+  <si>
+    <t>좃찐</t>
+  </si>
+  <si>
+    <t>좆같</t>
+  </si>
+  <si>
+    <t>좆까</t>
+  </si>
+  <si>
+    <t>좆나</t>
+  </si>
+  <si>
+    <t>좆또</t>
+  </si>
+  <si>
+    <t>좆만</t>
+  </si>
+  <si>
+    <t>좆밥</t>
+  </si>
+  <si>
+    <t>좆이</t>
+  </si>
+  <si>
+    <t>좆찐</t>
+  </si>
+  <si>
+    <t>좇같</t>
+  </si>
+  <si>
+    <t>좇이</t>
+  </si>
+  <si>
+    <t>좌식</t>
+  </si>
+  <si>
+    <t>주글</t>
+  </si>
+  <si>
+    <t>주글래</t>
+  </si>
+  <si>
+    <t>주데이</t>
+  </si>
+  <si>
+    <t>주뎅</t>
+  </si>
+  <si>
+    <t>주뎅이</t>
+  </si>
+  <si>
+    <t>주둥아리</t>
+  </si>
+  <si>
+    <t>주접떨</t>
+  </si>
+  <si>
+    <t>죽고잡</t>
+  </si>
+  <si>
+    <t>죽을래</t>
+  </si>
+  <si>
+    <t>쥐랄\</t>
+  </si>
+  <si>
+    <t>쥐롤</t>
+  </si>
+  <si>
+    <t>지랄</t>
+  </si>
+  <si>
+    <t>지럴</t>
+  </si>
+  <si>
+    <t>지롤</t>
+  </si>
+  <si>
+    <t>지미랄</t>
+  </si>
+  <si>
+    <t>쫍빱</t>
+  </si>
+  <si>
+    <t>찌랄</t>
+  </si>
+  <si>
+    <t>창녀</t>
+  </si>
+  <si>
+    <t>캐년</t>
+  </si>
+  <si>
+    <t>캐놈</t>
+  </si>
+  <si>
+    <t>캐스끼</t>
+  </si>
+  <si>
+    <t>캐스키</t>
+  </si>
+  <si>
+    <t>캐시키</t>
+  </si>
+  <si>
+    <t>팔럼</t>
+  </si>
+  <si>
+    <t>퍽큐</t>
+  </si>
+  <si>
+    <t>호로</t>
+  </si>
+  <si>
+    <t>호로놈</t>
+  </si>
+  <si>
+    <t>호로새끼</t>
+  </si>
+  <si>
+    <t>호로색</t>
+  </si>
+  <si>
+    <t>호로쉑</t>
+  </si>
+  <si>
+    <t>호로스까이</t>
+  </si>
+  <si>
+    <t>호로스키</t>
+  </si>
+  <si>
+    <t>후라들</t>
+  </si>
+  <si>
+    <t>후래자식</t>
+  </si>
+  <si>
+    <t>후레</t>
+  </si>
+  <si>
+    <t>후뢰</t>
+  </si>
+  <si>
+    <t>씨ㅋ발</t>
+  </si>
+  <si>
+    <t>ㅆ1발</t>
+  </si>
+  <si>
+    <t>씌발</t>
+  </si>
+  <si>
+    <t>띄발</t>
+  </si>
+  <si>
+    <t>뛰발</t>
+  </si>
+  <si>
+    <t>띠ㅋ발</t>
+  </si>
+  <si>
+    <t>뉘뮈</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52910,6 +54251,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -52954,7 +54301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -52988,6 +54335,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -53302,10 +54650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E4BE4-ED24-4861-A2F7-3BF22B48EE32}">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="E500" sqref="E500"/>
+    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:A953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -57313,6 +58661,3624 @@
         <v>494</v>
       </c>
     </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B501" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B510" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B511" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B512" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B513" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B514" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B515" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B516" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B517" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B518" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B519" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B520" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B521" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B522" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B523" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B526" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B528" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B529" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B530" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B531" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B532" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B533" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B534" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B535" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B536" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B537" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B538" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B539" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B540" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B541" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B542" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B544" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B545" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B546" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B547" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B548" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B549" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B550" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B551" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B553" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B554" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B555" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B556" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B557" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B558" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B559" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B560" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B561" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B562" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B563" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B564" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B565" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B566" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B567" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B568" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B569" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B570" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B571" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B572" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B573" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B574" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B575" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B576" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B577" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B578" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B579" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B580" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B581" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B582" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B583" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B584" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B585" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B586" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B587" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B588" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B589" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B591" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B592" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B593" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B594" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B596" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B597" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B598" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B599" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B600" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B601" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B602" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B603" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B604" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B605" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B606" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B607" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B608" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B609" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B610" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B613" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B614" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B615" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B616" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B617" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B619" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B620" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B621" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B622" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B623" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B624" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B625" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B626" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B627" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B628" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B629" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B630" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B631" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B632" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B633" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B634" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B635" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B636" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B637" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B638" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B639" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B640" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B641" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B642" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B643" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B644" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B645" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B646" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B647" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B648" s="11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B649" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B650" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B651" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B652" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B653" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B654" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B655" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B656" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B657" s="11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B658" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B660" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B662" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B664" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B666" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B668" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B670" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B671" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B672" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B673" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B676" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B677" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B678" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B679" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B680" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B682" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B683" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B684" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B686" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B688" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B689" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B691" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B692" s="11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B694" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B695" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B696" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B697" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B698" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B700" s="11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B701" s="11"/>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B702" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B703" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B704" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B706" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B707" s="11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B708" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B710" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B711" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B712" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B714" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B716" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B717" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B718" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B719" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B720" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B721" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B722" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B724" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B725" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B726" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B727" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B728" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B729" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B730" s="11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B732" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B733" s="11" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B734" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B735" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B736" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B737" s="11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B738" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B739" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B740" s="11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B741" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B742" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B743" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B744" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B745" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B746" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B748" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B749" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B750" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B752" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B753" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B754" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B756" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B757" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B758" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B760" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B761" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B762" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B764" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B766" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B768" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B770" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B772" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B773" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B774" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B778" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B779" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B780" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B781" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B783" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B784" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B785" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B786" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B787" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B789" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B790" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B791" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B792" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B793" s="11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B794" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B795" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B796" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B797" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B798" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B799" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B800" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B801" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B802" s="11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B803" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B804" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B805" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B806" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B807" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B808" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B809" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B810" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B811" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B812" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B813" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B814" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B815" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B816" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B817" s="11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B818" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B819" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B820" s="11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B821" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B822" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B823" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B824" s="11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B825" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B826" s="11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B827" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B828" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B829" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B830" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B831" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B832" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B833" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B834" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B835" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B836" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B837" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B838" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B839" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B840" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B841" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B842" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B843" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B844" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B845" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B846" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B847" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B848" s="11" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B849" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B850" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B851" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B852" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B853" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B854" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B855" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B856" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B857" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B858" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B859" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B860" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B861" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B862" s="11" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B863" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B864" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B865" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B866" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B867" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B868" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B869" s="11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B870" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B871" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B872" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B873" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B874" s="11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B875" s="11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B876" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B877" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B878" s="11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B879" s="11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B880" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B881" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B882" s="11" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B883" s="11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B884" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B885" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B886" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B887" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B888" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B889" s="11" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B890" s="11" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B891" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B892" s="11" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B893" s="11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B894" s="11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B895" s="11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B896" s="11" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B897" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B898" s="11" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B899" s="11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B900" s="11" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B901" s="11" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B902" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B903" s="11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B904" s="11" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B905" s="11" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B906" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B907" s="11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B908" s="11" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B909" s="11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B910" s="11" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B911" s="11" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B912" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B913" s="11" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B914" s="11"/>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B915" s="11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B916" s="11" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B917" s="11" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B918" s="11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B919" s="11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B920" s="11"/>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B921" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B922" s="11" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B923" s="11" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B924" s="11" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B925" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B926" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B927" s="11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B928" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B929" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B930" s="11" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B931" s="11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B932" s="11" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B933" s="11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B934" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B935" s="11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B936" s="11" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B937" s="11" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B938" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B939" s="11" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B940" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B941" s="11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B942" s="11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B943" s="11" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B944" s="11" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B945" s="11" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B946" s="11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B947" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B948" s="11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B949" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B950" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B951" s="11" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B952" s="11" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B953" s="11" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/runningfile.xlsx
+++ b/runningfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandonJ\Desktop\filtertext\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhe\Desktop\textmask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4601DB-A3D9-4C6B-B6F1-3AAA8D39F37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708E2AF-0886-4898-A747-8FF91C8B71E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C91FCE9-0359-459C-A316-4C12974A0EFB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="948">
   <si>
     <t>Clean</t>
   </si>
@@ -51985,6 +51985,2149 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>드디어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미쳤구나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>똥대가리들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안자면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤지냐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맘대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무시하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정권이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이럴때는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따령</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~~ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공개못하구나</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너무하네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹고살아야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말이죠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생계가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절박하다구요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅠㅠ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새끼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자식이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그런가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애비애미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰라보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OOO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들이네</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그놈때문에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나쁜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박혀있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ooo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은새끼는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑지좀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마라</t>
+    </r>
+  </si>
+  <si>
+    <t>10새</t>
+  </si>
+  <si>
+    <t>10새기</t>
+  </si>
+  <si>
+    <t>10새리</t>
+  </si>
+  <si>
+    <t>10세리</t>
+  </si>
+  <si>
+    <t>10쉐이</t>
+  </si>
+  <si>
+    <t>10쉑</t>
+  </si>
+  <si>
+    <t>10스</t>
+  </si>
+  <si>
+    <t>10쌔</t>
+  </si>
+  <si>
+    <t>10쌔기</t>
+  </si>
+  <si>
+    <t>10쎄</t>
+  </si>
+  <si>
+    <t>10알</t>
+  </si>
+  <si>
+    <t>10창</t>
+  </si>
+  <si>
+    <t>10탱</t>
+  </si>
+  <si>
+    <t>18것</t>
+  </si>
+  <si>
+    <t>18넘</t>
+  </si>
+  <si>
+    <t>18년</t>
+  </si>
+  <si>
+    <t>18노</t>
+  </si>
+  <si>
+    <t>18놈</t>
+  </si>
+  <si>
+    <t>18뇬</t>
+  </si>
+  <si>
+    <t>18럼</t>
+  </si>
+  <si>
+    <t>18롬</t>
+  </si>
+  <si>
+    <t>18새끼</t>
+  </si>
+  <si>
+    <t>18색</t>
+  </si>
+  <si>
+    <t>18세끼</t>
+  </si>
+  <si>
+    <t>18세리</t>
+  </si>
+  <si>
+    <t>18섹</t>
+  </si>
+  <si>
+    <t>18쉑</t>
+  </si>
+  <si>
+    <t>18스</t>
+  </si>
+  <si>
+    <t>18아</t>
+  </si>
+  <si>
+    <t>ㄱㅐ</t>
+  </si>
+  <si>
+    <t>ㄲㅏ</t>
+  </si>
+  <si>
+    <t>ㄲㅑ</t>
+  </si>
+  <si>
+    <t>ㄲㅣ</t>
+  </si>
+  <si>
+    <t>ㅅㅂㄹㅁ</t>
+  </si>
+  <si>
+    <t>ㅅㅐ</t>
+  </si>
+  <si>
+    <t>ㅆㅂㄹㅁ</t>
+  </si>
+  <si>
+    <t>ㅆㅍㅆㅣ</t>
+  </si>
+  <si>
+    <t>ㅆ앙ㅍㅏ</t>
+  </si>
+  <si>
+    <t>갈보</t>
+  </si>
+  <si>
+    <t>갈보년</t>
+  </si>
+  <si>
+    <t>강아지</t>
+  </si>
+  <si>
+    <t>같은년</t>
+  </si>
+  <si>
+    <t>같은뇬</t>
+  </si>
+  <si>
+    <t>개같은</t>
+  </si>
+  <si>
+    <t>개구라</t>
+  </si>
+  <si>
+    <t>개년</t>
+  </si>
+  <si>
+    <t>개놈</t>
+  </si>
+  <si>
+    <t>개뇬</t>
+  </si>
+  <si>
+    <t>개대중</t>
+  </si>
+  <si>
+    <t>개독</t>
+  </si>
+  <si>
+    <t>개돼중</t>
+  </si>
+  <si>
+    <t>개랄</t>
+  </si>
+  <si>
+    <t>개보지</t>
+  </si>
+  <si>
+    <t>개뻥</t>
+  </si>
+  <si>
+    <t>개뿔</t>
+  </si>
+  <si>
+    <t>개새</t>
+  </si>
+  <si>
+    <t>개새기</t>
+  </si>
+  <si>
+    <t>개새끼</t>
+  </si>
+  <si>
+    <t>개새키</t>
+  </si>
+  <si>
+    <t>개색기</t>
+  </si>
+  <si>
+    <t>개색끼</t>
+  </si>
+  <si>
+    <t>개색키</t>
+  </si>
+  <si>
+    <t>개색히</t>
+  </si>
+  <si>
+    <t>개섀끼</t>
+  </si>
+  <si>
+    <t>개세</t>
+  </si>
+  <si>
+    <t>개세끼</t>
+  </si>
+  <si>
+    <t>개세이</t>
+  </si>
+  <si>
+    <t>개소리</t>
+  </si>
+  <si>
+    <t>개쑈</t>
+  </si>
+  <si>
+    <t>개쇳기</t>
+  </si>
+  <si>
+    <t>개수작</t>
+  </si>
+  <si>
+    <t>개쉐</t>
+  </si>
+  <si>
+    <t>개쉐리</t>
+  </si>
+  <si>
+    <t>개쉐이</t>
+  </si>
+  <si>
+    <t>개쉑</t>
+  </si>
+  <si>
+    <t>개쉽</t>
+  </si>
+  <si>
+    <t>개스끼</t>
+  </si>
+  <si>
+    <t>개시키</t>
+  </si>
+  <si>
+    <t>개십새기</t>
+  </si>
+  <si>
+    <t>개십새끼</t>
+  </si>
+  <si>
+    <t>개쐑</t>
+  </si>
+  <si>
+    <t>개씹</t>
+  </si>
+  <si>
+    <t>개아들</t>
+  </si>
+  <si>
+    <t>개자슥</t>
+  </si>
+  <si>
+    <t>개자지</t>
+  </si>
+  <si>
+    <t>개접</t>
+  </si>
+  <si>
+    <t>개좆</t>
+  </si>
+  <si>
+    <t>개좌식</t>
+  </si>
+  <si>
+    <t>개허접</t>
+  </si>
+  <si>
+    <t>걔새</t>
+  </si>
+  <si>
+    <t>걔수작</t>
+  </si>
+  <si>
+    <t>걔시끼</t>
+  </si>
+  <si>
+    <t>걔시키</t>
+  </si>
+  <si>
+    <t>걔썌</t>
+  </si>
+  <si>
+    <t>게색기</t>
+  </si>
+  <si>
+    <t>게색끼</t>
+  </si>
+  <si>
+    <t>광뇬</t>
+  </si>
+  <si>
+    <t>구녕</t>
+  </si>
+  <si>
+    <t>구라</t>
+  </si>
+  <si>
+    <t>그년</t>
+  </si>
+  <si>
+    <t>그새끼</t>
+  </si>
+  <si>
+    <t>놈현</t>
+  </si>
+  <si>
+    <t>뇬뉘미럴</t>
+  </si>
+  <si>
+    <t>니귀미</t>
+  </si>
+  <si>
+    <t>니기미</t>
+  </si>
+  <si>
+    <t>니미</t>
+  </si>
+  <si>
+    <t>니미랄</t>
+  </si>
+  <si>
+    <t>니미럴</t>
+  </si>
+  <si>
+    <t>니미씹</t>
+  </si>
+  <si>
+    <t>니아배</t>
+  </si>
+  <si>
+    <t>니아베</t>
+  </si>
+  <si>
+    <t>니아비</t>
+  </si>
+  <si>
+    <t>니어매</t>
+  </si>
+  <si>
+    <t>니어메</t>
+  </si>
+  <si>
+    <t>니어미</t>
+  </si>
+  <si>
+    <t>닝기리</t>
+  </si>
+  <si>
+    <t>닝기미</t>
+  </si>
+  <si>
+    <t>대가리</t>
+  </si>
+  <si>
+    <t>뎡신</t>
+  </si>
+  <si>
+    <t>도라이</t>
+  </si>
+  <si>
+    <t>돈놈</t>
+  </si>
+  <si>
+    <t>돌아이</t>
+  </si>
+  <si>
+    <t>돌은놈</t>
+  </si>
+  <si>
+    <t>되질래</t>
+  </si>
+  <si>
+    <t>뒈져</t>
+  </si>
+  <si>
+    <t>뒈져라</t>
+  </si>
+  <si>
+    <t>뒈진</t>
+  </si>
+  <si>
+    <t>뒈진다</t>
+  </si>
+  <si>
+    <t>뒈질</t>
+  </si>
+  <si>
+    <t>뒤질래</t>
+  </si>
+  <si>
+    <t>디져라</t>
+  </si>
+  <si>
+    <t>디진다</t>
+  </si>
+  <si>
+    <t>디질래</t>
+  </si>
+  <si>
+    <t>딩시</t>
+  </si>
+  <si>
+    <t>따식</t>
+  </si>
+  <si>
+    <t>때놈</t>
+  </si>
+  <si>
+    <t>또라이</t>
+  </si>
+  <si>
+    <t>똘아이</t>
+  </si>
+  <si>
+    <t>뙈놈</t>
+  </si>
+  <si>
+    <t>뙤놈</t>
+  </si>
+  <si>
+    <t>뙨넘</t>
+  </si>
+  <si>
+    <t>뙨놈</t>
+  </si>
+  <si>
+    <t>뚜쟁</t>
+  </si>
+  <si>
+    <t>띠바</t>
+  </si>
+  <si>
+    <t>띠발</t>
+  </si>
+  <si>
+    <t>띠불</t>
+  </si>
+  <si>
+    <t>띠팔</t>
+  </si>
+  <si>
+    <t>메친넘</t>
+  </si>
+  <si>
+    <t>메친놈</t>
+  </si>
+  <si>
+    <t>미췬</t>
+  </si>
+  <si>
+    <t>미친넘</t>
+  </si>
+  <si>
+    <t>미친년</t>
+  </si>
+  <si>
+    <t>미친놈</t>
+  </si>
+  <si>
+    <t>미친새끼</t>
+  </si>
+  <si>
+    <t>미친스까이</t>
+  </si>
+  <si>
+    <t>미틴</t>
+  </si>
+  <si>
+    <t>미틴넘</t>
+  </si>
+  <si>
+    <t>미틴년</t>
+  </si>
+  <si>
+    <t>미틴놈</t>
+  </si>
+  <si>
+    <t>바랄년</t>
+  </si>
+  <si>
+    <t>뱅마</t>
+  </si>
+  <si>
+    <t>뱅신</t>
+  </si>
+  <si>
+    <t>벼엉신</t>
+  </si>
+  <si>
+    <t>병쉰</t>
+  </si>
+  <si>
+    <t>병신</t>
+  </si>
+  <si>
+    <t>부랄</t>
+  </si>
+  <si>
+    <t>부럴</t>
+  </si>
+  <si>
+    <t>불알</t>
+  </si>
+  <si>
+    <t>불할</t>
+  </si>
+  <si>
+    <t>붕가</t>
+  </si>
+  <si>
+    <t>붙어먹</t>
+  </si>
+  <si>
+    <t>뷰웅</t>
+  </si>
+  <si>
+    <t>븅</t>
+  </si>
+  <si>
+    <t>븅신</t>
+  </si>
+  <si>
+    <t>빌어먹</t>
+  </si>
+  <si>
+    <t>빙시</t>
+  </si>
+  <si>
+    <t>빙신</t>
+  </si>
+  <si>
+    <t>빠가</t>
+  </si>
+  <si>
+    <t>빠구리</t>
+  </si>
+  <si>
+    <t>빠굴</t>
+  </si>
+  <si>
+    <t>빠큐</t>
+  </si>
+  <si>
+    <t>뻐큐</t>
+  </si>
+  <si>
+    <t>뻑큐</t>
+  </si>
+  <si>
+    <t>뽁큐</t>
+  </si>
+  <si>
+    <t>상넘이</t>
+  </si>
+  <si>
+    <t>상놈을</t>
+  </si>
+  <si>
+    <t>상놈의</t>
+  </si>
+  <si>
+    <t>상놈이</t>
+  </si>
+  <si>
+    <t>새갸</t>
+  </si>
+  <si>
+    <t>새꺄</t>
+  </si>
+  <si>
+    <t>새새끼</t>
+  </si>
+  <si>
+    <t>새키</t>
+  </si>
+  <si>
+    <t>색끼</t>
+  </si>
+  <si>
+    <t>세갸</t>
+  </si>
+  <si>
+    <t>세꺄</t>
+  </si>
+  <si>
+    <t>쇼하네</t>
+  </si>
+  <si>
+    <t>쉐기</t>
+  </si>
+  <si>
+    <t>쉐끼</t>
+  </si>
+  <si>
+    <t>쉐리</t>
+  </si>
+  <si>
+    <t>쉐에기</t>
+  </si>
+  <si>
+    <t>쉐키</t>
+  </si>
+  <si>
+    <t>쉑</t>
+  </si>
+  <si>
+    <t>쉣</t>
+  </si>
+  <si>
+    <t>쉨</t>
+  </si>
+  <si>
+    <t>쉬발</t>
+  </si>
+  <si>
+    <t>쉬밸</t>
+  </si>
+  <si>
+    <t>쉬벌</t>
+  </si>
+  <si>
+    <t>쉬뻘</t>
+  </si>
+  <si>
+    <t>쉬펄</t>
+  </si>
+  <si>
+    <t>쉽알</t>
+  </si>
+  <si>
+    <t>스패킹</t>
+  </si>
+  <si>
+    <t>스팽</t>
+  </si>
+  <si>
+    <t>시댕</t>
+  </si>
+  <si>
+    <t>시뎅</t>
+  </si>
+  <si>
+    <t>시랄</t>
+  </si>
+  <si>
+    <t>시발시벌</t>
+  </si>
+  <si>
+    <t>시부랄</t>
+  </si>
+  <si>
+    <t>시부럴</t>
+  </si>
+  <si>
+    <t>시부리</t>
+  </si>
+  <si>
+    <t>시불</t>
+  </si>
+  <si>
+    <t>시브랄</t>
+  </si>
+  <si>
+    <t>시팍</t>
+  </si>
+  <si>
+    <t>시팔</t>
+  </si>
+  <si>
+    <t>시펄</t>
+  </si>
+  <si>
+    <t>심발끈</t>
+  </si>
+  <si>
+    <t>심탱</t>
+  </si>
+  <si>
+    <t>십8</t>
+  </si>
+  <si>
+    <t>십라</t>
+  </si>
+  <si>
+    <t>십새</t>
+  </si>
+  <si>
+    <t>십새끼</t>
+  </si>
+  <si>
+    <t>십세</t>
+  </si>
+  <si>
+    <t>십쉐</t>
+  </si>
+  <si>
+    <t>십쉐이</t>
+  </si>
+  <si>
+    <t>십스키</t>
+  </si>
+  <si>
+    <t>십쌔</t>
+  </si>
+  <si>
+    <t>십창</t>
+  </si>
+  <si>
+    <t>십탱</t>
+  </si>
+  <si>
+    <t>싶알</t>
+  </si>
+  <si>
+    <t>싸가지</t>
+  </si>
+  <si>
+    <t>싹아지</t>
+  </si>
+  <si>
+    <t>쌉년</t>
+  </si>
+  <si>
+    <t>쌍넘</t>
+  </si>
+  <si>
+    <t>쌍년</t>
+  </si>
+  <si>
+    <t>쌍놈</t>
+  </si>
+  <si>
+    <t>쌍뇬</t>
+  </si>
+  <si>
+    <t>쌔끼</t>
+  </si>
+  <si>
+    <t>쌕</t>
+  </si>
+  <si>
+    <t>쌩쑈</t>
+  </si>
+  <si>
+    <t>쌴년</t>
+  </si>
+  <si>
+    <t>썅</t>
+  </si>
+  <si>
+    <t>썅년</t>
+  </si>
+  <si>
+    <t>썅놈</t>
+  </si>
+  <si>
+    <t>썡쇼</t>
+  </si>
+  <si>
+    <t>써벌</t>
+  </si>
+  <si>
+    <t>썩을년</t>
+  </si>
+  <si>
+    <t>썩을놈</t>
+  </si>
+  <si>
+    <t>쎄꺄</t>
+  </si>
+  <si>
+    <t>쎄엑</t>
+  </si>
+  <si>
+    <t>쒸벌</t>
+  </si>
+  <si>
+    <t>쒸뻘</t>
+  </si>
+  <si>
+    <t>쒸팔</t>
+  </si>
+  <si>
+    <t>쒸펄</t>
+  </si>
+  <si>
+    <t>쓰바</t>
+  </si>
+  <si>
+    <t>쓰박</t>
+  </si>
+  <si>
+    <t>쓰발</t>
+  </si>
+  <si>
+    <t>쓰벌</t>
+  </si>
+  <si>
+    <t>쓰팔</t>
+  </si>
+  <si>
+    <t>씁새</t>
+  </si>
+  <si>
+    <t>씁얼</t>
+  </si>
+  <si>
+    <t>씌파</t>
+  </si>
+  <si>
+    <t>씨8</t>
+  </si>
+  <si>
+    <t>씨끼</t>
+  </si>
+  <si>
+    <t>씨댕</t>
+  </si>
+  <si>
+    <t>씨뎅</t>
+  </si>
+  <si>
+    <t>씨바</t>
+  </si>
+  <si>
+    <t>씨바랄</t>
+  </si>
+  <si>
+    <t>씨박</t>
+  </si>
+  <si>
+    <t>씨발</t>
+  </si>
+  <si>
+    <t>씨방</t>
+  </si>
+  <si>
+    <t>씨방새</t>
+  </si>
+  <si>
+    <t>씨방세</t>
+  </si>
+  <si>
+    <t>씨밸</t>
+  </si>
+  <si>
+    <t>씨뱅</t>
+  </si>
+  <si>
+    <t>씨벌</t>
+  </si>
+  <si>
+    <t>씨벨</t>
+  </si>
+  <si>
+    <t>씨봉</t>
+  </si>
+  <si>
+    <t>씨봉알</t>
+  </si>
+  <si>
+    <t>씨부랄</t>
+  </si>
+  <si>
+    <t>씨부럴</t>
+  </si>
+  <si>
+    <t>씨부렁</t>
+  </si>
+  <si>
+    <t>씨부리</t>
+  </si>
+  <si>
+    <t>씨불</t>
+  </si>
+  <si>
+    <t>씨붕</t>
+  </si>
+  <si>
+    <t>씨브랄</t>
+  </si>
+  <si>
+    <t>씨빠</t>
+  </si>
+  <si>
+    <t>씨빨</t>
+  </si>
+  <si>
+    <t>씨뽀랄</t>
+  </si>
+  <si>
+    <t>씨앙</t>
+  </si>
+  <si>
+    <t>씨파</t>
+  </si>
+  <si>
+    <t>씨팍</t>
+  </si>
+  <si>
+    <t>씨팔</t>
+  </si>
+  <si>
+    <t>씨펄</t>
+  </si>
+  <si>
+    <t>씸년</t>
+  </si>
+  <si>
+    <t>씸뇬</t>
+  </si>
+  <si>
+    <t>씸새끼</t>
+  </si>
+  <si>
+    <t>씹같</t>
+  </si>
+  <si>
+    <t>씹년</t>
+  </si>
+  <si>
+    <t>씹뇬</t>
+  </si>
+  <si>
+    <t>씹보지</t>
+  </si>
+  <si>
+    <t>씹새</t>
+  </si>
+  <si>
+    <t>씹새기</t>
+  </si>
+  <si>
+    <t>씹새끼</t>
+  </si>
+  <si>
+    <t>씹새리</t>
+  </si>
+  <si>
+    <t>씹세</t>
+  </si>
+  <si>
+    <t>씹쉐</t>
+  </si>
+  <si>
+    <t>씹스키</t>
+  </si>
+  <si>
+    <t>씹쌔</t>
+  </si>
+  <si>
+    <t>씹이</t>
+  </si>
+  <si>
+    <t>씹자지</t>
+  </si>
+  <si>
+    <t>씹질</t>
+  </si>
+  <si>
+    <t>씹창</t>
+  </si>
+  <si>
+    <t>씹탱</t>
+  </si>
+  <si>
+    <t>씹퇭</t>
+  </si>
+  <si>
+    <t>씹팔</t>
+  </si>
+  <si>
+    <t>씹할</t>
+  </si>
+  <si>
+    <t>씹헐</t>
+  </si>
+  <si>
+    <t>아가리</t>
+  </si>
+  <si>
+    <t>아갈</t>
+  </si>
+  <si>
+    <t>아갈이</t>
+  </si>
+  <si>
+    <t>아갈통</t>
+  </si>
+  <si>
+    <t>아구창</t>
+  </si>
+  <si>
+    <t>아구통</t>
+  </si>
+  <si>
+    <t>아굴</t>
+  </si>
+  <si>
+    <t>얌마</t>
+  </si>
+  <si>
+    <t>양넘</t>
+  </si>
+  <si>
+    <t>양년</t>
+  </si>
+  <si>
+    <t>양놈</t>
+  </si>
+  <si>
+    <t>엄창</t>
+  </si>
+  <si>
+    <t>엠병</t>
+  </si>
+  <si>
+    <t>여물통</t>
+  </si>
+  <si>
+    <t>염병</t>
+  </si>
+  <si>
+    <t>엿같</t>
+  </si>
+  <si>
+    <t>옘병</t>
+  </si>
+  <si>
+    <t>옘빙</t>
+  </si>
+  <si>
+    <t>왜년</t>
+  </si>
+  <si>
+    <t>왜놈</t>
+  </si>
+  <si>
+    <t>욤병</t>
+  </si>
+  <si>
+    <t>육갑</t>
+  </si>
+  <si>
+    <t>은년</t>
+  </si>
+  <si>
+    <t>을년</t>
+  </si>
+  <si>
+    <t>이년</t>
+  </si>
+  <si>
+    <t>이새끼</t>
+  </si>
+  <si>
+    <t>이새키</t>
+  </si>
+  <si>
+    <t>이스끼</t>
+  </si>
+  <si>
+    <t>이스키</t>
+  </si>
+  <si>
+    <t>임마</t>
+  </si>
+  <si>
+    <t>자슥</t>
+  </si>
+  <si>
+    <t>잡것</t>
+  </si>
+  <si>
+    <t>잡넘</t>
+  </si>
+  <si>
+    <t>잡년</t>
+  </si>
+  <si>
+    <t>잡놈</t>
+  </si>
+  <si>
+    <t>저년</t>
+  </si>
+  <si>
+    <t>저새끼</t>
+  </si>
+  <si>
+    <t>접년</t>
+  </si>
+  <si>
+    <t>젖밥</t>
+  </si>
+  <si>
+    <t>조까</t>
+  </si>
+  <si>
+    <t>조까치</t>
+  </si>
+  <si>
+    <t>조낸</t>
+  </si>
+  <si>
+    <t>조또</t>
+  </si>
+  <si>
+    <t>조랭</t>
+  </si>
+  <si>
+    <t>조빠</t>
+  </si>
+  <si>
+    <t>조쟁이</t>
+  </si>
+  <si>
+    <t>조지냐</t>
+  </si>
+  <si>
+    <t>조진다</t>
+  </si>
+  <si>
+    <t>조찐</t>
+  </si>
+  <si>
+    <t>조질래</t>
+  </si>
+  <si>
+    <t>존나</t>
+  </si>
+  <si>
+    <t>존나게</t>
+  </si>
+  <si>
+    <t>존니</t>
+  </si>
+  <si>
+    <t>존만</t>
+  </si>
+  <si>
+    <t>존만한</t>
+  </si>
+  <si>
+    <t>좀물</t>
+  </si>
+  <si>
+    <t>좁년</t>
+  </si>
+  <si>
+    <t>좆</t>
+  </si>
+  <si>
+    <t>좁밥</t>
+  </si>
+  <si>
+    <t>좃까</t>
+  </si>
+  <si>
+    <t>좃또</t>
+  </si>
+  <si>
+    <t>좃만</t>
+  </si>
+  <si>
+    <t>좃밥</t>
+  </si>
+  <si>
+    <t>좃이</t>
+  </si>
+  <si>
+    <t>좃찐</t>
+  </si>
+  <si>
+    <t>좆같</t>
+  </si>
+  <si>
+    <t>좆까</t>
+  </si>
+  <si>
+    <t>좆나</t>
+  </si>
+  <si>
+    <t>좆또</t>
+  </si>
+  <si>
+    <t>좆만</t>
+  </si>
+  <si>
+    <t>좆밥</t>
+  </si>
+  <si>
+    <t>좆이</t>
+  </si>
+  <si>
+    <t>좆찐</t>
+  </si>
+  <si>
+    <t>좇같</t>
+  </si>
+  <si>
+    <t>좇이</t>
+  </si>
+  <si>
+    <t>좌식</t>
+  </si>
+  <si>
+    <t>주글</t>
+  </si>
+  <si>
+    <t>주글래</t>
+  </si>
+  <si>
+    <t>주데이</t>
+  </si>
+  <si>
+    <t>주뎅</t>
+  </si>
+  <si>
+    <t>주뎅이</t>
+  </si>
+  <si>
+    <t>주둥아리</t>
+  </si>
+  <si>
+    <t>주접떨</t>
+  </si>
+  <si>
+    <t>죽고잡</t>
+  </si>
+  <si>
+    <t>죽을래</t>
+  </si>
+  <si>
+    <t>쥐랄\</t>
+  </si>
+  <si>
+    <t>쥐롤</t>
+  </si>
+  <si>
+    <t>지랄</t>
+  </si>
+  <si>
+    <t>지럴</t>
+  </si>
+  <si>
+    <t>지롤</t>
+  </si>
+  <si>
+    <t>지미랄</t>
+  </si>
+  <si>
+    <t>쫍빱</t>
+  </si>
+  <si>
+    <t>찌랄</t>
+  </si>
+  <si>
+    <t>창녀</t>
+  </si>
+  <si>
+    <t>캐년</t>
+  </si>
+  <si>
+    <t>캐놈</t>
+  </si>
+  <si>
+    <t>캐스끼</t>
+  </si>
+  <si>
+    <t>캐스키</t>
+  </si>
+  <si>
+    <t>캐시키</t>
+  </si>
+  <si>
+    <t>팔럼</t>
+  </si>
+  <si>
+    <t>퍽큐</t>
+  </si>
+  <si>
+    <t>호로</t>
+  </si>
+  <si>
+    <t>호로놈</t>
+  </si>
+  <si>
+    <t>호로새끼</t>
+  </si>
+  <si>
+    <t>호로색</t>
+  </si>
+  <si>
+    <t>호로쉑</t>
+  </si>
+  <si>
+    <t>호로스까이</t>
+  </si>
+  <si>
+    <t>호로스키</t>
+  </si>
+  <si>
+    <t>후라들</t>
+  </si>
+  <si>
+    <t>후래자식</t>
+  </si>
+  <si>
+    <t>후레</t>
+  </si>
+  <si>
+    <t>후뢰</t>
+  </si>
+  <si>
+    <t>씨ㅋ발</t>
+  </si>
+  <si>
+    <t>ㅆ1발</t>
+  </si>
+  <si>
+    <t>씌발</t>
+  </si>
+  <si>
+    <t>띄발</t>
+  </si>
+  <si>
+    <t>뛰발</t>
+  </si>
+  <si>
+    <t>띠ㅋ발</t>
+  </si>
+  <si>
+    <t>뉘뮈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>웃기는</t>
     </r>
     <r>
@@ -52025,2161 +54168,14 @@
       </rPr>
       <t>ᆢ</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>드디어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미쳤구나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>!!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>똥대가리들</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하루</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안자면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뒤지냐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분류</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>법을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맘대로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무시하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정권이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꼭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이럴때는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따령</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">~~ </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공개못하구나</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>너무하네요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>먹고살아야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>말이죠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생계가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>절박하다구요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅠㅠ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새끼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자식이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없어서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그런가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애비애미</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몰라보는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> OOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들이네</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그놈때문에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나쁜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>딱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박혀있어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ooo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은새끼는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뽑지좀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마라</t>
-    </r>
-  </si>
-  <si>
-    <t>10새</t>
-  </si>
-  <si>
-    <t>10새기</t>
-  </si>
-  <si>
-    <t>10새리</t>
-  </si>
-  <si>
-    <t>10세리</t>
-  </si>
-  <si>
-    <t>10쉐이</t>
-  </si>
-  <si>
-    <t>10쉑</t>
-  </si>
-  <si>
-    <t>10스</t>
-  </si>
-  <si>
-    <t>10쌔</t>
-  </si>
-  <si>
-    <t>10쌔기</t>
-  </si>
-  <si>
-    <t>10쎄</t>
-  </si>
-  <si>
-    <t>10알</t>
-  </si>
-  <si>
-    <t>10창</t>
-  </si>
-  <si>
-    <t>10탱</t>
-  </si>
-  <si>
-    <t>18것</t>
-  </si>
-  <si>
-    <t>18넘</t>
-  </si>
-  <si>
-    <t>18년</t>
-  </si>
-  <si>
-    <t>18노</t>
-  </si>
-  <si>
-    <t>18놈</t>
-  </si>
-  <si>
-    <t>18뇬</t>
-  </si>
-  <si>
-    <t>18럼</t>
-  </si>
-  <si>
-    <t>18롬</t>
-  </si>
-  <si>
-    <t>18새끼</t>
-  </si>
-  <si>
-    <t>18색</t>
-  </si>
-  <si>
-    <t>18세끼</t>
-  </si>
-  <si>
-    <t>18세리</t>
-  </si>
-  <si>
-    <t>18섹</t>
-  </si>
-  <si>
-    <t>18쉑</t>
-  </si>
-  <si>
-    <t>18스</t>
-  </si>
-  <si>
-    <t>18아</t>
-  </si>
-  <si>
-    <t>ㄱㅐ</t>
-  </si>
-  <si>
-    <t>ㄲㅏ</t>
-  </si>
-  <si>
-    <t>ㄲㅑ</t>
-  </si>
-  <si>
-    <t>ㄲㅣ</t>
-  </si>
-  <si>
-    <t>ㅅㅂㄹㅁ</t>
-  </si>
-  <si>
-    <t>ㅅㅐ</t>
-  </si>
-  <si>
-    <t>ㅆㅂㄹㅁ</t>
-  </si>
-  <si>
-    <t>ㅆㅍㅆㅣ</t>
-  </si>
-  <si>
-    <t>ㅆ앙ㅍㅏ</t>
-  </si>
-  <si>
-    <t>凸</t>
-  </si>
-  <si>
-    <t>갈보</t>
-  </si>
-  <si>
-    <t>갈보년</t>
-  </si>
-  <si>
-    <t>강아지</t>
-  </si>
-  <si>
-    <t>같은년</t>
-  </si>
-  <si>
-    <t>같은뇬</t>
-  </si>
-  <si>
-    <t>개같은</t>
-  </si>
-  <si>
-    <t>개구라</t>
-  </si>
-  <si>
-    <t>개년</t>
-  </si>
-  <si>
-    <t>개놈</t>
-  </si>
-  <si>
-    <t>개뇬</t>
-  </si>
-  <si>
-    <t>개대중</t>
-  </si>
-  <si>
-    <t>개독</t>
-  </si>
-  <si>
-    <t>개돼중</t>
-  </si>
-  <si>
-    <t>개랄</t>
-  </si>
-  <si>
-    <t>개보지</t>
-  </si>
-  <si>
-    <t>개뻥</t>
-  </si>
-  <si>
-    <t>개뿔</t>
-  </si>
-  <si>
-    <t>개새</t>
-  </si>
-  <si>
-    <t>개새기</t>
-  </si>
-  <si>
-    <t>개새끼</t>
-  </si>
-  <si>
-    <t>개새키</t>
-  </si>
-  <si>
-    <t>개색기</t>
-  </si>
-  <si>
-    <t>개색끼</t>
-  </si>
-  <si>
-    <t>개색키</t>
-  </si>
-  <si>
-    <t>개색히</t>
-  </si>
-  <si>
-    <t>개섀끼</t>
-  </si>
-  <si>
-    <t>개세</t>
-  </si>
-  <si>
-    <t>개세끼</t>
-  </si>
-  <si>
-    <t>개세이</t>
-  </si>
-  <si>
-    <t>개소리</t>
-  </si>
-  <si>
-    <t>개쑈</t>
-  </si>
-  <si>
-    <t>개쇳기</t>
-  </si>
-  <si>
-    <t>개수작</t>
-  </si>
-  <si>
-    <t>개쉐</t>
-  </si>
-  <si>
-    <t>개쉐리</t>
-  </si>
-  <si>
-    <t>개쉐이</t>
-  </si>
-  <si>
-    <t>개쉑</t>
-  </si>
-  <si>
-    <t>개쉽</t>
-  </si>
-  <si>
-    <t>개스끼</t>
-  </si>
-  <si>
-    <t>개시키</t>
-  </si>
-  <si>
-    <t>개십새기</t>
-  </si>
-  <si>
-    <t>개십새끼</t>
-  </si>
-  <si>
-    <t>개쐑</t>
-  </si>
-  <si>
-    <t>개씹</t>
-  </si>
-  <si>
-    <t>개아들</t>
-  </si>
-  <si>
-    <t>개자슥</t>
-  </si>
-  <si>
-    <t>개자지</t>
-  </si>
-  <si>
-    <t>개접</t>
-  </si>
-  <si>
-    <t>개좆</t>
-  </si>
-  <si>
-    <t>개좌식</t>
-  </si>
-  <si>
-    <t>개허접</t>
-  </si>
-  <si>
-    <t>걔새</t>
-  </si>
-  <si>
-    <t>걔수작</t>
-  </si>
-  <si>
-    <t>걔시끼</t>
-  </si>
-  <si>
-    <t>걔시키</t>
-  </si>
-  <si>
-    <t>걔썌</t>
-  </si>
-  <si>
-    <t>게색기</t>
-  </si>
-  <si>
-    <t>게색끼</t>
-  </si>
-  <si>
-    <t>광뇬</t>
-  </si>
-  <si>
-    <t>구녕</t>
-  </si>
-  <si>
-    <t>구라</t>
-  </si>
-  <si>
-    <t>그년</t>
-  </si>
-  <si>
-    <t>그새끼</t>
-  </si>
-  <si>
-    <t>놈현</t>
-  </si>
-  <si>
-    <t>뇬뉘미럴</t>
-  </si>
-  <si>
-    <t>니귀미</t>
-  </si>
-  <si>
-    <t>니기미</t>
-  </si>
-  <si>
-    <t>니미</t>
-  </si>
-  <si>
-    <t>니미랄</t>
-  </si>
-  <si>
-    <t>니미럴</t>
-  </si>
-  <si>
-    <t>니미씹</t>
-  </si>
-  <si>
-    <t>니아배</t>
-  </si>
-  <si>
-    <t>니아베</t>
-  </si>
-  <si>
-    <t>니아비</t>
-  </si>
-  <si>
-    <t>니어매</t>
-  </si>
-  <si>
-    <t>니어메</t>
-  </si>
-  <si>
-    <t>니어미</t>
-  </si>
-  <si>
-    <t>닝기리</t>
-  </si>
-  <si>
-    <t>닝기미</t>
-  </si>
-  <si>
-    <t>대가리</t>
-  </si>
-  <si>
-    <t>뎡신</t>
-  </si>
-  <si>
-    <t>도라이</t>
-  </si>
-  <si>
-    <t>돈놈</t>
-  </si>
-  <si>
-    <t>돌아이</t>
-  </si>
-  <si>
-    <t>돌은놈</t>
-  </si>
-  <si>
-    <t>되질래</t>
-  </si>
-  <si>
-    <t>뒈져</t>
-  </si>
-  <si>
-    <t>뒈져라</t>
-  </si>
-  <si>
-    <t>뒈진</t>
-  </si>
-  <si>
-    <t>뒈진다</t>
-  </si>
-  <si>
-    <t>뒈질</t>
-  </si>
-  <si>
-    <t>뒤질래</t>
-  </si>
-  <si>
-    <t>디져라</t>
-  </si>
-  <si>
-    <t>디진다</t>
-  </si>
-  <si>
-    <t>디질래</t>
-  </si>
-  <si>
-    <t>딩시</t>
-  </si>
-  <si>
-    <t>따식</t>
-  </si>
-  <si>
-    <t>때놈</t>
-  </si>
-  <si>
-    <t>또라이</t>
-  </si>
-  <si>
-    <t>똘아이</t>
-  </si>
-  <si>
-    <t>뙈놈</t>
-  </si>
-  <si>
-    <t>뙤놈</t>
-  </si>
-  <si>
-    <t>뙨넘</t>
-  </si>
-  <si>
-    <t>뙨놈</t>
-  </si>
-  <si>
-    <t>뚜쟁</t>
-  </si>
-  <si>
-    <t>띠바</t>
-  </si>
-  <si>
-    <t>띠발</t>
-  </si>
-  <si>
-    <t>띠불</t>
-  </si>
-  <si>
-    <t>띠팔</t>
-  </si>
-  <si>
-    <t>메친넘</t>
-  </si>
-  <si>
-    <t>메친놈</t>
-  </si>
-  <si>
-    <t>미췬</t>
-  </si>
-  <si>
-    <t>미친넘</t>
-  </si>
-  <si>
-    <t>미친년</t>
-  </si>
-  <si>
-    <t>미친놈</t>
-  </si>
-  <si>
-    <t>미친새끼</t>
-  </si>
-  <si>
-    <t>미친스까이</t>
-  </si>
-  <si>
-    <t>미틴</t>
-  </si>
-  <si>
-    <t>미틴넘</t>
-  </si>
-  <si>
-    <t>미틴년</t>
-  </si>
-  <si>
-    <t>미틴놈</t>
-  </si>
-  <si>
-    <t>바랄년</t>
-  </si>
-  <si>
-    <t>뱅마</t>
-  </si>
-  <si>
-    <t>뱅신</t>
-  </si>
-  <si>
-    <t>벼엉신</t>
-  </si>
-  <si>
-    <t>병쉰</t>
-  </si>
-  <si>
-    <t>병신</t>
-  </si>
-  <si>
-    <t>부랄</t>
-  </si>
-  <si>
-    <t>부럴</t>
-  </si>
-  <si>
-    <t>불알</t>
-  </si>
-  <si>
-    <t>불할</t>
-  </si>
-  <si>
-    <t>붕가</t>
-  </si>
-  <si>
-    <t>붙어먹</t>
-  </si>
-  <si>
-    <t>뷰웅</t>
-  </si>
-  <si>
-    <t>븅</t>
-  </si>
-  <si>
-    <t>븅신</t>
-  </si>
-  <si>
-    <t>빌어먹</t>
-  </si>
-  <si>
-    <t>빙시</t>
-  </si>
-  <si>
-    <t>빙신</t>
-  </si>
-  <si>
-    <t>빠가</t>
-  </si>
-  <si>
-    <t>빠구리</t>
-  </si>
-  <si>
-    <t>빠굴</t>
-  </si>
-  <si>
-    <t>빠큐</t>
-  </si>
-  <si>
-    <t>뻐큐</t>
-  </si>
-  <si>
-    <t>뻑큐</t>
-  </si>
-  <si>
-    <t>뽁큐</t>
-  </si>
-  <si>
-    <t>상넘이</t>
-  </si>
-  <si>
-    <t>상놈을</t>
-  </si>
-  <si>
-    <t>상놈의</t>
-  </si>
-  <si>
-    <t>상놈이</t>
-  </si>
-  <si>
-    <t>새갸</t>
-  </si>
-  <si>
-    <t>새꺄</t>
-  </si>
-  <si>
-    <t>새새끼</t>
-  </si>
-  <si>
-    <t>새키</t>
-  </si>
-  <si>
-    <t>색끼</t>
-  </si>
-  <si>
-    <t>세갸</t>
-  </si>
-  <si>
-    <t>세꺄</t>
-  </si>
-  <si>
-    <t>섹스</t>
-  </si>
-  <si>
-    <t>쇼하네</t>
-  </si>
-  <si>
-    <t>쉐기</t>
-  </si>
-  <si>
-    <t>쉐끼</t>
-  </si>
-  <si>
-    <t>쉐리</t>
-  </si>
-  <si>
-    <t>쉐에기</t>
-  </si>
-  <si>
-    <t>쉐키</t>
-  </si>
-  <si>
-    <t>쉑</t>
-  </si>
-  <si>
-    <t>쉣</t>
-  </si>
-  <si>
-    <t>쉨</t>
-  </si>
-  <si>
-    <t>쉬발</t>
-  </si>
-  <si>
-    <t>쉬밸</t>
-  </si>
-  <si>
-    <t>쉬벌</t>
-  </si>
-  <si>
-    <t>쉬뻘</t>
-  </si>
-  <si>
-    <t>쉬펄</t>
-  </si>
-  <si>
-    <t>쉽알</t>
-  </si>
-  <si>
-    <t>스패킹</t>
-  </si>
-  <si>
-    <t>스팽</t>
-  </si>
-  <si>
-    <t>시댕</t>
-  </si>
-  <si>
-    <t>시뎅</t>
-  </si>
-  <si>
-    <t>시랄</t>
-  </si>
-  <si>
-    <t>시발시벌</t>
-  </si>
-  <si>
-    <t>시부랄</t>
-  </si>
-  <si>
-    <t>시부럴</t>
-  </si>
-  <si>
-    <t>시부리</t>
-  </si>
-  <si>
-    <t>시불</t>
-  </si>
-  <si>
-    <t>시브랄</t>
-  </si>
-  <si>
-    <t>시팍</t>
-  </si>
-  <si>
-    <t>시팔</t>
-  </si>
-  <si>
-    <t>시펄</t>
-  </si>
-  <si>
-    <t>심발끈</t>
-  </si>
-  <si>
-    <t>심탱</t>
-  </si>
-  <si>
-    <t>십8</t>
-  </si>
-  <si>
-    <t>십라</t>
-  </si>
-  <si>
-    <t>십새</t>
-  </si>
-  <si>
-    <t>십새끼</t>
-  </si>
-  <si>
-    <t>십세</t>
-  </si>
-  <si>
-    <t>십쉐</t>
-  </si>
-  <si>
-    <t>십쉐이</t>
-  </si>
-  <si>
-    <t>십스키</t>
-  </si>
-  <si>
-    <t>십쌔</t>
-  </si>
-  <si>
-    <t>십창</t>
-  </si>
-  <si>
-    <t>십탱</t>
-  </si>
-  <si>
-    <t>싶알</t>
-  </si>
-  <si>
-    <t>싸가지</t>
-  </si>
-  <si>
-    <t>싹아지</t>
-  </si>
-  <si>
-    <t>쌉년</t>
-  </si>
-  <si>
-    <t>쌍넘</t>
-  </si>
-  <si>
-    <t>쌍년</t>
-  </si>
-  <si>
-    <t>쌍놈</t>
-  </si>
-  <si>
-    <t>쌍뇬</t>
-  </si>
-  <si>
-    <t>쌔끼</t>
-  </si>
-  <si>
-    <t>쌕</t>
-  </si>
-  <si>
-    <t>쌩쑈</t>
-  </si>
-  <si>
-    <t>쌴년</t>
-  </si>
-  <si>
-    <t>썅</t>
-  </si>
-  <si>
-    <t>썅년</t>
-  </si>
-  <si>
-    <t>썅놈</t>
-  </si>
-  <si>
-    <t>썡쇼</t>
-  </si>
-  <si>
-    <t>써벌</t>
-  </si>
-  <si>
-    <t>썩을년</t>
-  </si>
-  <si>
-    <t>썩을놈</t>
-  </si>
-  <si>
-    <t>쎄꺄</t>
-  </si>
-  <si>
-    <t>쎄엑</t>
-  </si>
-  <si>
-    <t>쒸벌</t>
-  </si>
-  <si>
-    <t>쒸뻘</t>
-  </si>
-  <si>
-    <t>쒸팔</t>
-  </si>
-  <si>
-    <t>쒸펄</t>
-  </si>
-  <si>
-    <t>쓰바</t>
-  </si>
-  <si>
-    <t>쓰박</t>
-  </si>
-  <si>
-    <t>쓰발</t>
-  </si>
-  <si>
-    <t>쓰벌</t>
-  </si>
-  <si>
-    <t>쓰팔</t>
-  </si>
-  <si>
-    <t>씁새</t>
-  </si>
-  <si>
-    <t>씁얼</t>
-  </si>
-  <si>
-    <t>씌파</t>
-  </si>
-  <si>
-    <t>씨8</t>
-  </si>
-  <si>
-    <t>씨끼</t>
-  </si>
-  <si>
-    <t>씨댕</t>
-  </si>
-  <si>
-    <t>씨뎅</t>
-  </si>
-  <si>
-    <t>씨바</t>
-  </si>
-  <si>
-    <t>씨바랄</t>
-  </si>
-  <si>
-    <t>씨박</t>
-  </si>
-  <si>
-    <t>씨발</t>
-  </si>
-  <si>
-    <t>씨방</t>
-  </si>
-  <si>
-    <t>씨방새</t>
-  </si>
-  <si>
-    <t>씨방세</t>
-  </si>
-  <si>
-    <t>씨밸</t>
-  </si>
-  <si>
-    <t>씨뱅</t>
-  </si>
-  <si>
-    <t>씨벌</t>
-  </si>
-  <si>
-    <t>씨벨</t>
-  </si>
-  <si>
-    <t>씨봉</t>
-  </si>
-  <si>
-    <t>씨봉알</t>
-  </si>
-  <si>
-    <t>씨부랄</t>
-  </si>
-  <si>
-    <t>씨부럴</t>
-  </si>
-  <si>
-    <t>씨부렁</t>
-  </si>
-  <si>
-    <t>씨부리</t>
-  </si>
-  <si>
-    <t>씨불</t>
-  </si>
-  <si>
-    <t>씨붕</t>
-  </si>
-  <si>
-    <t>씨브랄</t>
-  </si>
-  <si>
-    <t>씨빠</t>
-  </si>
-  <si>
-    <t>씨빨</t>
-  </si>
-  <si>
-    <t>씨뽀랄</t>
-  </si>
-  <si>
-    <t>씨앙</t>
-  </si>
-  <si>
-    <t>씨파</t>
-  </si>
-  <si>
-    <t>씨팍</t>
-  </si>
-  <si>
-    <t>씨팔</t>
-  </si>
-  <si>
-    <t>씨펄</t>
-  </si>
-  <si>
-    <t>씸년</t>
-  </si>
-  <si>
-    <t>씸뇬</t>
-  </si>
-  <si>
-    <t>씸새끼</t>
-  </si>
-  <si>
-    <t>씹같</t>
-  </si>
-  <si>
-    <t>씹년</t>
-  </si>
-  <si>
-    <t>씹뇬</t>
-  </si>
-  <si>
-    <t>씹보지</t>
-  </si>
-  <si>
-    <t>씹새</t>
-  </si>
-  <si>
-    <t>씹새기</t>
-  </si>
-  <si>
-    <t>씹새끼</t>
-  </si>
-  <si>
-    <t>씹새리</t>
-  </si>
-  <si>
-    <t>씹세</t>
-  </si>
-  <si>
-    <t>씹쉐</t>
-  </si>
-  <si>
-    <t>씹스키</t>
-  </si>
-  <si>
-    <t>씹쌔</t>
-  </si>
-  <si>
-    <t>씹이</t>
-  </si>
-  <si>
-    <t>씹자지</t>
-  </si>
-  <si>
-    <t>씹질</t>
-  </si>
-  <si>
-    <t>씹창</t>
-  </si>
-  <si>
-    <t>씹탱</t>
-  </si>
-  <si>
-    <t>씹퇭</t>
-  </si>
-  <si>
-    <t>씹팔</t>
-  </si>
-  <si>
-    <t>씹할</t>
-  </si>
-  <si>
-    <t>씹헐</t>
-  </si>
-  <si>
-    <t>아가리</t>
-  </si>
-  <si>
-    <t>아갈</t>
-  </si>
-  <si>
-    <t>아갈이</t>
-  </si>
-  <si>
-    <t>아갈통</t>
-  </si>
-  <si>
-    <t>아구창</t>
-  </si>
-  <si>
-    <t>아구통</t>
-  </si>
-  <si>
-    <t>아굴</t>
-  </si>
-  <si>
-    <t>얌마</t>
-  </si>
-  <si>
-    <t>양넘</t>
-  </si>
-  <si>
-    <t>양년</t>
-  </si>
-  <si>
-    <t>양놈</t>
-  </si>
-  <si>
-    <t>엄창</t>
-  </si>
-  <si>
-    <t>엠병</t>
-  </si>
-  <si>
-    <t>여물통</t>
-  </si>
-  <si>
-    <t>염병</t>
-  </si>
-  <si>
-    <t>엿같</t>
-  </si>
-  <si>
-    <t>옘병</t>
-  </si>
-  <si>
-    <t>옘빙</t>
-  </si>
-  <si>
-    <t>왜년</t>
-  </si>
-  <si>
-    <t>왜놈</t>
-  </si>
-  <si>
-    <t>욤병</t>
-  </si>
-  <si>
-    <t>육갑</t>
-  </si>
-  <si>
-    <t>은년</t>
-  </si>
-  <si>
-    <t>을년</t>
-  </si>
-  <si>
-    <t>이년</t>
-  </si>
-  <si>
-    <t>이새끼</t>
-  </si>
-  <si>
-    <t>이새키</t>
-  </si>
-  <si>
-    <t>이스끼</t>
-  </si>
-  <si>
-    <t>이스키</t>
-  </si>
-  <si>
-    <t>임마</t>
-  </si>
-  <si>
-    <t>자슥</t>
-  </si>
-  <si>
-    <t>잡것</t>
-  </si>
-  <si>
-    <t>잡넘</t>
-  </si>
-  <si>
-    <t>잡년</t>
-  </si>
-  <si>
-    <t>잡놈</t>
-  </si>
-  <si>
-    <t>저년</t>
-  </si>
-  <si>
-    <t>저새끼</t>
-  </si>
-  <si>
-    <t>접년</t>
-  </si>
-  <si>
-    <t>젖밥</t>
-  </si>
-  <si>
-    <t>조까</t>
-  </si>
-  <si>
-    <t>조까치</t>
-  </si>
-  <si>
-    <t>조낸</t>
-  </si>
-  <si>
-    <t>조또</t>
-  </si>
-  <si>
-    <t>조랭</t>
-  </si>
-  <si>
-    <t>조빠</t>
-  </si>
-  <si>
-    <t>조쟁이</t>
-  </si>
-  <si>
-    <t>조지냐</t>
-  </si>
-  <si>
-    <t>조진다</t>
-  </si>
-  <si>
-    <t>조찐</t>
-  </si>
-  <si>
-    <t>조질래</t>
-  </si>
-  <si>
-    <t>존나</t>
-  </si>
-  <si>
-    <t>존나게</t>
-  </si>
-  <si>
-    <t>존니</t>
-  </si>
-  <si>
-    <t>존만</t>
-  </si>
-  <si>
-    <t>존만한</t>
-  </si>
-  <si>
-    <t>좀물</t>
-  </si>
-  <si>
-    <t>좁년</t>
-  </si>
-  <si>
-    <t>좆</t>
-  </si>
-  <si>
-    <t>좁밥</t>
-  </si>
-  <si>
-    <t>좃까</t>
-  </si>
-  <si>
-    <t>좃또</t>
-  </si>
-  <si>
-    <t>좃만</t>
-  </si>
-  <si>
-    <t>좃밥</t>
-  </si>
-  <si>
-    <t>좃이</t>
-  </si>
-  <si>
-    <t>좃찐</t>
-  </si>
-  <si>
-    <t>좆같</t>
-  </si>
-  <si>
-    <t>좆까</t>
-  </si>
-  <si>
-    <t>좆나</t>
-  </si>
-  <si>
-    <t>좆또</t>
-  </si>
-  <si>
-    <t>좆만</t>
-  </si>
-  <si>
-    <t>좆밥</t>
-  </si>
-  <si>
-    <t>좆이</t>
-  </si>
-  <si>
-    <t>좆찐</t>
-  </si>
-  <si>
-    <t>좇같</t>
-  </si>
-  <si>
-    <t>좇이</t>
-  </si>
-  <si>
-    <t>좌식</t>
-  </si>
-  <si>
-    <t>주글</t>
-  </si>
-  <si>
-    <t>주글래</t>
-  </si>
-  <si>
-    <t>주데이</t>
-  </si>
-  <si>
-    <t>주뎅</t>
-  </si>
-  <si>
-    <t>주뎅이</t>
-  </si>
-  <si>
-    <t>주둥아리</t>
-  </si>
-  <si>
-    <t>주접떨</t>
-  </si>
-  <si>
-    <t>죽고잡</t>
-  </si>
-  <si>
-    <t>죽을래</t>
-  </si>
-  <si>
-    <t>쥐랄\</t>
-  </si>
-  <si>
-    <t>쥐롤</t>
-  </si>
-  <si>
-    <t>지랄</t>
-  </si>
-  <si>
-    <t>지럴</t>
-  </si>
-  <si>
-    <t>지롤</t>
-  </si>
-  <si>
-    <t>지미랄</t>
-  </si>
-  <si>
-    <t>쫍빱</t>
-  </si>
-  <si>
-    <t>찌랄</t>
-  </si>
-  <si>
-    <t>창녀</t>
-  </si>
-  <si>
-    <t>캐년</t>
-  </si>
-  <si>
-    <t>캐놈</t>
-  </si>
-  <si>
-    <t>캐스끼</t>
-  </si>
-  <si>
-    <t>캐스키</t>
-  </si>
-  <si>
-    <t>캐시키</t>
-  </si>
-  <si>
-    <t>팔럼</t>
-  </si>
-  <si>
-    <t>퍽큐</t>
-  </si>
-  <si>
-    <t>호로</t>
-  </si>
-  <si>
-    <t>호로놈</t>
-  </si>
-  <si>
-    <t>호로새끼</t>
-  </si>
-  <si>
-    <t>호로색</t>
-  </si>
-  <si>
-    <t>호로쉑</t>
-  </si>
-  <si>
-    <t>호로스까이</t>
-  </si>
-  <si>
-    <t>호로스키</t>
-  </si>
-  <si>
-    <t>후라들</t>
-  </si>
-  <si>
-    <t>후래자식</t>
-  </si>
-  <si>
-    <t>후레</t>
-  </si>
-  <si>
-    <t>후뢰</t>
-  </si>
-  <si>
-    <t>씨ㅋ발</t>
-  </si>
-  <si>
-    <t>ㅆ1발</t>
-  </si>
-  <si>
-    <t>씌발</t>
-  </si>
-  <si>
-    <t>띄발</t>
-  </si>
-  <si>
-    <t>뛰발</t>
-  </si>
-  <si>
-    <t>띠ㅋ발</t>
-  </si>
-  <si>
-    <t>뉘뮈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54257,6 +54253,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -54301,7 +54311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -54335,7 +54345,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -54650,10 +54664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E4BE4-ED24-4861-A2F7-3BF22B48EE32}">
-  <dimension ref="A1:B953"/>
+  <dimension ref="A1:B948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:A953"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -54663,10 +54677,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -54706,7 +54720,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -54714,7 +54728,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -54962,7 +54976,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -57954,7 +57968,7 @@
         <v>1</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -58066,7 +58080,7 @@
         <v>1</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -58122,7 +58136,7 @@
         <v>1</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -58641,8 +58655,8 @@
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B498" s="7" t="s">
-        <v>492</v>
+      <c r="B498" s="13" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -58650,7 +58664,7 @@
         <v>1</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -58658,7 +58672,7 @@
         <v>1</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -58666,7 +58680,7 @@
         <v>1</v>
       </c>
       <c r="B501" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -58674,7 +58688,7 @@
         <v>1</v>
       </c>
       <c r="B502" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -58682,7 +58696,7 @@
         <v>1</v>
       </c>
       <c r="B503" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -58690,7 +58704,7 @@
         <v>1</v>
       </c>
       <c r="B504" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -58698,7 +58712,7 @@
         <v>1</v>
       </c>
       <c r="B505" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -58706,7 +58720,7 @@
         <v>1</v>
       </c>
       <c r="B506" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -58714,7 +58728,7 @@
         <v>1</v>
       </c>
       <c r="B507" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -58722,7 +58736,7 @@
         <v>1</v>
       </c>
       <c r="B508" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -58730,7 +58744,7 @@
         <v>1</v>
       </c>
       <c r="B509" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -58738,7 +58752,7 @@
         <v>1</v>
       </c>
       <c r="B510" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -58746,7 +58760,7 @@
         <v>1</v>
       </c>
       <c r="B511" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -58754,7 +58768,7 @@
         <v>1</v>
       </c>
       <c r="B512" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -58762,7 +58776,7 @@
         <v>1</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -58770,7 +58784,7 @@
         <v>1</v>
       </c>
       <c r="B514" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -58778,7 +58792,7 @@
         <v>1</v>
       </c>
       <c r="B515" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -58786,7 +58800,7 @@
         <v>1</v>
       </c>
       <c r="B516" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -58794,7 +58808,7 @@
         <v>1</v>
       </c>
       <c r="B517" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -58802,7 +58816,7 @@
         <v>1</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -58810,7 +58824,7 @@
         <v>1</v>
       </c>
       <c r="B519" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -58818,7 +58832,7 @@
         <v>1</v>
       </c>
       <c r="B520" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -58826,7 +58840,7 @@
         <v>1</v>
       </c>
       <c r="B521" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -58834,7 +58848,7 @@
         <v>1</v>
       </c>
       <c r="B522" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -58842,7 +58856,7 @@
         <v>1</v>
       </c>
       <c r="B523" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -58850,7 +58864,7 @@
         <v>1</v>
       </c>
       <c r="B524" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -58858,7 +58872,7 @@
         <v>1</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -58866,7 +58880,7 @@
         <v>1</v>
       </c>
       <c r="B526" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -58874,7 +58888,7 @@
         <v>1</v>
       </c>
       <c r="B527" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -58882,7 +58896,7 @@
         <v>1</v>
       </c>
       <c r="B528" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -58890,7 +58904,7 @@
         <v>1</v>
       </c>
       <c r="B529" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -58898,7 +58912,7 @@
         <v>1</v>
       </c>
       <c r="B530" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -58906,7 +58920,7 @@
         <v>1</v>
       </c>
       <c r="B531" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -58914,7 +58928,7 @@
         <v>1</v>
       </c>
       <c r="B532" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -58922,7 +58936,7 @@
         <v>1</v>
       </c>
       <c r="B533" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -58930,7 +58944,7 @@
         <v>1</v>
       </c>
       <c r="B534" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -58938,7 +58952,7 @@
         <v>1</v>
       </c>
       <c r="B535" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -58946,7 +58960,7 @@
         <v>1</v>
       </c>
       <c r="B536" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -58954,7 +58968,7 @@
         <v>1</v>
       </c>
       <c r="B537" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -58962,7 +58976,7 @@
         <v>1</v>
       </c>
       <c r="B538" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -58970,7 +58984,7 @@
         <v>1</v>
       </c>
       <c r="B539" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -58978,7 +58992,7 @@
         <v>1</v>
       </c>
       <c r="B540" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -58986,7 +59000,7 @@
         <v>1</v>
       </c>
       <c r="B541" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -58994,7 +59008,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -59002,7 +59016,7 @@
         <v>1</v>
       </c>
       <c r="B543" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -59010,7 +59024,7 @@
         <v>1</v>
       </c>
       <c r="B544" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -59018,7 +59032,7 @@
         <v>1</v>
       </c>
       <c r="B545" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -59026,7 +59040,7 @@
         <v>1</v>
       </c>
       <c r="B546" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -59034,7 +59048,7 @@
         <v>1</v>
       </c>
       <c r="B547" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -59042,7 +59056,7 @@
         <v>1</v>
       </c>
       <c r="B548" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -59050,7 +59064,7 @@
         <v>1</v>
       </c>
       <c r="B549" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -59058,7 +59072,7 @@
         <v>1</v>
       </c>
       <c r="B550" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -59066,7 +59080,7 @@
         <v>1</v>
       </c>
       <c r="B551" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -59074,7 +59088,7 @@
         <v>1</v>
       </c>
       <c r="B552" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -59082,7 +59096,7 @@
         <v>1</v>
       </c>
       <c r="B553" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -59090,7 +59104,7 @@
         <v>1</v>
       </c>
       <c r="B554" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -59098,7 +59112,7 @@
         <v>1</v>
       </c>
       <c r="B555" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -59106,7 +59120,7 @@
         <v>1</v>
       </c>
       <c r="B556" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -59114,7 +59128,7 @@
         <v>1</v>
       </c>
       <c r="B557" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -59122,7 +59136,7 @@
         <v>1</v>
       </c>
       <c r="B558" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -59130,7 +59144,7 @@
         <v>1</v>
       </c>
       <c r="B559" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -59138,7 +59152,7 @@
         <v>1</v>
       </c>
       <c r="B560" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -59146,7 +59160,7 @@
         <v>1</v>
       </c>
       <c r="B561" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -59154,7 +59168,7 @@
         <v>1</v>
       </c>
       <c r="B562" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -59162,7 +59176,7 @@
         <v>1</v>
       </c>
       <c r="B563" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -59170,7 +59184,7 @@
         <v>1</v>
       </c>
       <c r="B564" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -59178,7 +59192,7 @@
         <v>1</v>
       </c>
       <c r="B565" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -59186,7 +59200,7 @@
         <v>1</v>
       </c>
       <c r="B566" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -59194,7 +59208,7 @@
         <v>1</v>
       </c>
       <c r="B567" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -59202,7 +59216,7 @@
         <v>1</v>
       </c>
       <c r="B568" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -59210,7 +59224,7 @@
         <v>1</v>
       </c>
       <c r="B569" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -59218,7 +59232,7 @@
         <v>1</v>
       </c>
       <c r="B570" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -59226,7 +59240,7 @@
         <v>1</v>
       </c>
       <c r="B571" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -59234,7 +59248,7 @@
         <v>1</v>
       </c>
       <c r="B572" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -59242,7 +59256,7 @@
         <v>1</v>
       </c>
       <c r="B573" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -59250,7 +59264,7 @@
         <v>1</v>
       </c>
       <c r="B574" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -59258,7 +59272,7 @@
         <v>1</v>
       </c>
       <c r="B575" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -59266,7 +59280,7 @@
         <v>1</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -59274,7 +59288,7 @@
         <v>1</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -59282,7 +59296,7 @@
         <v>1</v>
       </c>
       <c r="B578" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -59290,7 +59304,7 @@
         <v>1</v>
       </c>
       <c r="B579" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -59298,7 +59312,7 @@
         <v>1</v>
       </c>
       <c r="B580" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -59306,7 +59320,7 @@
         <v>1</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -59314,7 +59328,7 @@
         <v>1</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -59322,7 +59336,7 @@
         <v>1</v>
       </c>
       <c r="B583" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -59330,7 +59344,7 @@
         <v>1</v>
       </c>
       <c r="B584" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -59338,7 +59352,7 @@
         <v>1</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -59346,7 +59360,7 @@
         <v>1</v>
       </c>
       <c r="B586" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -59354,7 +59368,7 @@
         <v>1</v>
       </c>
       <c r="B587" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -59362,7 +59376,7 @@
         <v>1</v>
       </c>
       <c r="B588" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -59370,7 +59384,7 @@
         <v>1</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -59378,7 +59392,7 @@
         <v>1</v>
       </c>
       <c r="B590" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -59386,7 +59400,7 @@
         <v>1</v>
       </c>
       <c r="B591" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -59394,7 +59408,7 @@
         <v>1</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -59402,7 +59416,7 @@
         <v>1</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -59410,7 +59424,7 @@
         <v>1</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -59418,7 +59432,7 @@
         <v>1</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -59426,7 +59440,7 @@
         <v>1</v>
       </c>
       <c r="B596" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -59434,7 +59448,7 @@
         <v>1</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -59442,7 +59456,7 @@
         <v>1</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -59450,7 +59464,7 @@
         <v>1</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -59458,7 +59472,7 @@
         <v>1</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -59466,7 +59480,7 @@
         <v>1</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -59474,7 +59488,7 @@
         <v>1</v>
       </c>
       <c r="B602" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -59482,7 +59496,7 @@
         <v>1</v>
       </c>
       <c r="B603" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -59490,7 +59504,7 @@
         <v>1</v>
       </c>
       <c r="B604" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -59498,7 +59512,7 @@
         <v>1</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -59506,7 +59520,7 @@
         <v>1</v>
       </c>
       <c r="B606" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -59514,7 +59528,7 @@
         <v>1</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -59522,7 +59536,7 @@
         <v>1</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -59530,7 +59544,7 @@
         <v>1</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -59538,7 +59552,7 @@
         <v>1</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -59546,7 +59560,7 @@
         <v>1</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -59554,7 +59568,7 @@
         <v>1</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -59562,7 +59576,7 @@
         <v>1</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -59570,7 +59584,7 @@
         <v>1</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -59578,7 +59592,7 @@
         <v>1</v>
       </c>
       <c r="B615" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -59586,7 +59600,7 @@
         <v>1</v>
       </c>
       <c r="B616" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -59594,7 +59608,7 @@
         <v>1</v>
       </c>
       <c r="B617" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -59602,7 +59616,7 @@
         <v>1</v>
       </c>
       <c r="B618" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -59610,7 +59624,7 @@
         <v>1</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -59618,7 +59632,7 @@
         <v>1</v>
       </c>
       <c r="B620" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -59626,7 +59640,7 @@
         <v>1</v>
       </c>
       <c r="B621" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -59634,7 +59648,7 @@
         <v>1</v>
       </c>
       <c r="B622" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -59642,7 +59656,7 @@
         <v>1</v>
       </c>
       <c r="B623" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -59650,7 +59664,7 @@
         <v>1</v>
       </c>
       <c r="B624" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -59658,7 +59672,7 @@
         <v>1</v>
       </c>
       <c r="B625" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -59666,7 +59680,7 @@
         <v>1</v>
       </c>
       <c r="B626" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -59674,7 +59688,7 @@
         <v>1</v>
       </c>
       <c r="B627" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -59682,7 +59696,7 @@
         <v>1</v>
       </c>
       <c r="B628" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -59690,7 +59704,7 @@
         <v>1</v>
       </c>
       <c r="B629" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -59698,7 +59712,7 @@
         <v>1</v>
       </c>
       <c r="B630" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -59706,7 +59720,7 @@
         <v>1</v>
       </c>
       <c r="B631" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -59714,7 +59728,7 @@
         <v>1</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -59722,7 +59736,7 @@
         <v>1</v>
       </c>
       <c r="B633" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -59730,7 +59744,7 @@
         <v>1</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -59738,7 +59752,7 @@
         <v>1</v>
       </c>
       <c r="B635" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -59746,7 +59760,7 @@
         <v>1</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -59754,7 +59768,7 @@
         <v>1</v>
       </c>
       <c r="B637" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -59762,7 +59776,7 @@
         <v>1</v>
       </c>
       <c r="B638" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -59770,7 +59784,7 @@
         <v>1</v>
       </c>
       <c r="B639" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -59778,7 +59792,7 @@
         <v>1</v>
       </c>
       <c r="B640" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -59786,7 +59800,7 @@
         <v>1</v>
       </c>
       <c r="B641" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -59794,7 +59808,7 @@
         <v>1</v>
       </c>
       <c r="B642" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -59802,7 +59816,7 @@
         <v>1</v>
       </c>
       <c r="B643" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -59810,7 +59824,7 @@
         <v>1</v>
       </c>
       <c r="B644" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -59818,7 +59832,7 @@
         <v>1</v>
       </c>
       <c r="B645" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -59826,7 +59840,7 @@
         <v>1</v>
       </c>
       <c r="B646" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -59834,7 +59848,7 @@
         <v>1</v>
       </c>
       <c r="B647" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -59842,7 +59856,7 @@
         <v>1</v>
       </c>
       <c r="B648" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -59850,7 +59864,7 @@
         <v>1</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -59858,7 +59872,7 @@
         <v>1</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -59866,7 +59880,7 @@
         <v>1</v>
       </c>
       <c r="B651" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -59874,7 +59888,7 @@
         <v>1</v>
       </c>
       <c r="B652" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -59882,7 +59896,7 @@
         <v>1</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -59890,7 +59904,7 @@
         <v>1</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -59898,7 +59912,7 @@
         <v>1</v>
       </c>
       <c r="B655" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -59906,7 +59920,7 @@
         <v>1</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -59914,7 +59928,7 @@
         <v>1</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -59922,7 +59936,7 @@
         <v>1</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -59930,7 +59944,7 @@
         <v>1</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -59938,7 +59952,7 @@
         <v>1</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -59946,7 +59960,7 @@
         <v>1</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -59954,7 +59968,7 @@
         <v>1</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -59962,7 +59976,7 @@
         <v>1</v>
       </c>
       <c r="B663" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -59970,7 +59984,7 @@
         <v>1</v>
       </c>
       <c r="B664" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -59978,7 +59992,7 @@
         <v>1</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -59986,7 +60000,7 @@
         <v>1</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -59994,7 +60008,7 @@
         <v>1</v>
       </c>
       <c r="B667" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -60002,7 +60016,7 @@
         <v>1</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -60010,7 +60024,7 @@
         <v>1</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -60018,7 +60032,7 @@
         <v>1</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -60026,7 +60040,7 @@
         <v>1</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -60034,7 +60048,7 @@
         <v>1</v>
       </c>
       <c r="B672" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -60042,7 +60056,7 @@
         <v>1</v>
       </c>
       <c r="B673" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -60050,7 +60064,7 @@
         <v>1</v>
       </c>
       <c r="B674" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -60058,7 +60072,7 @@
         <v>1</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -60066,7 +60080,7 @@
         <v>1</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -60074,7 +60088,7 @@
         <v>1</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -60082,7 +60096,7 @@
         <v>1</v>
       </c>
       <c r="B678" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -60090,7 +60104,7 @@
         <v>1</v>
       </c>
       <c r="B679" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -60098,7 +60112,7 @@
         <v>1</v>
       </c>
       <c r="B680" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -60106,7 +60120,7 @@
         <v>1</v>
       </c>
       <c r="B681" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -60114,7 +60128,7 @@
         <v>1</v>
       </c>
       <c r="B682" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -60122,7 +60136,7 @@
         <v>1</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -60130,7 +60144,7 @@
         <v>1</v>
       </c>
       <c r="B684" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -60138,7 +60152,7 @@
         <v>1</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -60146,7 +60160,7 @@
         <v>1</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -60154,7 +60168,7 @@
         <v>1</v>
       </c>
       <c r="B687" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -60162,7 +60176,7 @@
         <v>1</v>
       </c>
       <c r="B688" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -60170,7 +60184,7 @@
         <v>1</v>
       </c>
       <c r="B689" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -60178,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -60186,7 +60200,7 @@
         <v>1</v>
       </c>
       <c r="B691" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -60194,7 +60208,7 @@
         <v>1</v>
       </c>
       <c r="B692" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -60202,7 +60216,7 @@
         <v>1</v>
       </c>
       <c r="B693" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -60210,7 +60224,7 @@
         <v>1</v>
       </c>
       <c r="B694" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -60218,7 +60232,7 @@
         <v>1</v>
       </c>
       <c r="B695" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -60226,7 +60240,7 @@
         <v>1</v>
       </c>
       <c r="B696" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -60234,7 +60248,7 @@
         <v>1</v>
       </c>
       <c r="B697" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -60242,7 +60256,7 @@
         <v>1</v>
       </c>
       <c r="B698" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -60250,7 +60264,7 @@
         <v>1</v>
       </c>
       <c r="B699" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -60258,14 +60272,16 @@
         <v>1</v>
       </c>
       <c r="B700" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B701" s="11"/>
+      <c r="B701" s="11" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
@@ -61967,14 +61983,16 @@
       <c r="A914" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B914" s="11"/>
+      <c r="B914" s="11" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B915" s="11" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
@@ -61982,7 +62000,7 @@
         <v>1</v>
       </c>
       <c r="B916" s="11" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
@@ -61990,7 +62008,7 @@
         <v>1</v>
       </c>
       <c r="B917" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
@@ -61998,7 +62016,7 @@
         <v>1</v>
       </c>
       <c r="B918" s="11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
@@ -62006,21 +62024,23 @@
         <v>1</v>
       </c>
       <c r="B919" s="11" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B920" s="11"/>
+      <c r="B920" s="11" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B921" s="11" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
@@ -62028,7 +62048,7 @@
         <v>1</v>
       </c>
       <c r="B922" s="11" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
@@ -62036,7 +62056,7 @@
         <v>1</v>
       </c>
       <c r="B923" s="11" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
@@ -62044,7 +62064,7 @@
         <v>1</v>
       </c>
       <c r="B924" s="11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
@@ -62052,7 +62072,7 @@
         <v>1</v>
       </c>
       <c r="B925" s="11" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
@@ -62060,7 +62080,7 @@
         <v>1</v>
       </c>
       <c r="B926" s="11" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
@@ -62068,7 +62088,7 @@
         <v>1</v>
       </c>
       <c r="B927" s="11" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
@@ -62076,7 +62096,7 @@
         <v>1</v>
       </c>
       <c r="B928" s="11" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
@@ -62084,7 +62104,7 @@
         <v>1</v>
       </c>
       <c r="B929" s="11" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -62092,7 +62112,7 @@
         <v>1</v>
       </c>
       <c r="B930" s="11" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
@@ -62100,7 +62120,7 @@
         <v>1</v>
       </c>
       <c r="B931" s="11" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
@@ -62108,7 +62128,7 @@
         <v>1</v>
       </c>
       <c r="B932" s="11" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
@@ -62116,7 +62136,7 @@
         <v>1</v>
       </c>
       <c r="B933" s="11" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
@@ -62124,7 +62144,7 @@
         <v>1</v>
       </c>
       <c r="B934" s="11" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -62132,7 +62152,7 @@
         <v>1</v>
       </c>
       <c r="B935" s="11" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -62140,7 +62160,7 @@
         <v>1</v>
       </c>
       <c r="B936" s="11" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
@@ -62148,7 +62168,7 @@
         <v>1</v>
       </c>
       <c r="B937" s="11" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
@@ -62156,7 +62176,7 @@
         <v>1</v>
       </c>
       <c r="B938" s="11" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
@@ -62164,7 +62184,7 @@
         <v>1</v>
       </c>
       <c r="B939" s="11" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
@@ -62172,7 +62192,7 @@
         <v>1</v>
       </c>
       <c r="B940" s="11" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
@@ -62180,7 +62200,7 @@
         <v>1</v>
       </c>
       <c r="B941" s="11" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -62188,7 +62208,7 @@
         <v>1</v>
       </c>
       <c r="B942" s="11" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
@@ -62196,7 +62216,7 @@
         <v>1</v>
       </c>
       <c r="B943" s="11" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
@@ -62204,7 +62224,7 @@
         <v>1</v>
       </c>
       <c r="B944" s="11" t="s">
-        <v>941</v>
+        <v>646</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
@@ -62212,7 +62232,7 @@
         <v>1</v>
       </c>
       <c r="B945" s="11" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
@@ -62220,7 +62240,7 @@
         <v>1</v>
       </c>
       <c r="B946" s="11" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
@@ -62228,55 +62248,15 @@
         <v>1</v>
       </c>
       <c r="B947" s="11" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A948" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B948" s="11" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A949" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B949" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A950" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B950" s="11" t="s">
+      <c r="B948" s="12" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A951" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B951" s="11" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A952" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B952" s="11" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A953" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B953" s="11" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/runningfile.xlsx
+++ b/runningfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhe\Desktop\textmask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708E2AF-0886-4898-A747-8FF91C8B71E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A46FD2-2FCE-412B-994C-6A64BC2B4732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C91FCE9-0359-459C-A316-4C12974A0EFB}"/>
   </bookViews>
@@ -54175,7 +54175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54267,6 +54267,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -54282,7 +54289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -54305,13 +54312,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -54346,9 +54366,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -54664,10 +54695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E4BE4-ED24-4861-A2F7-3BF22B48EE32}">
-  <dimension ref="A1:B948"/>
+  <dimension ref="A1:B951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" topLeftCell="A947" workbookViewId="0">
+      <selection activeCell="D954" sqref="D954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58655,7 +58686,7 @@
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B498" s="13" t="s">
+      <c r="B498" s="12" t="s">
         <v>947</v>
       </c>
     </row>
@@ -62252,12 +62283,24 @@
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A948" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B948" s="12" t="s">
+      <c r="A948" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B948" s="14" t="s">
         <v>946</v>
       </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="15"/>
+      <c r="B949" s="16"/>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="15"/>
+      <c r="B950" s="17"/>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" s="15"/>
+      <c r="B951" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
